--- a/UI/Translations.xlsx
+++ b/UI/Translations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\FPVTrackside\FPVTracksideCore\UI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA354DF5-4FEA-42BE-8A9B-8A063D3553CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1B499B-9B66-43C2-82AD-7DB96D4F2B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16605" yWindow="5100" windowWidth="17760" windowHeight="15345" xr2:uid="{E566F940-E218-42A9-AEEE-BA6E31E00AA3}"/>
+    <workbookView xWindow="3900" yWindow="3900" windowWidth="38700" windowHeight="15345" xr2:uid="{E566F940-E218-42A9-AEEE-BA6E31E00AA3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="890">
   <si>
     <t>Editor.ApplicationProfileSettings.ShowWelcomeScreen</t>
   </si>
@@ -1851,6 +1851,861 @@
   </si>
   <si>
     <t>Worm</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>*Show Welcome Screen*</t>
+  </si>
+  <si>
+    <t>*Metric*</t>
+  </si>
+  <si>
+    <t>*Imperial*</t>
+  </si>
+  <si>
+    <t>*'Sponsored By' messages.*</t>
+  </si>
+  <si>
+    <t>*Shown Decimal Places*</t>
+  </si>
+  <si>
+    <t>*Frame Rate Limit*</t>
+  </si>
+  <si>
+    <t>*V-Sync*</t>
+  </si>
+  <si>
+    <t>*UI / Font Scale (Percent)*</t>
+  </si>
+  <si>
+    <t>*Legacy DirectX 9.0 (Reach) mode*</t>
+  </si>
+  <si>
+    <t>*Video recordings to keep*</t>
+  </si>
+  <si>
+    <t>*Event Storage Location*</t>
+  </si>
+  <si>
+    <t>*Video Static Detector*</t>
+  </si>
+  <si>
+    <t>*Crash Threshold*</t>
+  </si>
+  <si>
+    <t>*Reactivate Threshold*</t>
+  </si>
+  <si>
+    <t>*Start Delay Seconds*</t>
+  </si>
+  <si>
+    <t>*Auto Sync race results*</t>
+  </si>
+  <si>
+    <t>*Auto start HTTP Server*</t>
+  </si>
+  <si>
+    <t>*HTTP Server race controls enabled*</t>
+  </si>
+  <si>
+    <t>*Top Left*</t>
+  </si>
+  <si>
+    <t>*Top Center*</t>
+  </si>
+  <si>
+    <t>*Top Right*</t>
+  </si>
+  <si>
+    <t>*Center Left*</t>
+  </si>
+  <si>
+    <t>*Center*</t>
+  </si>
+  <si>
+    <t>*Center Right*</t>
+  </si>
+  <si>
+    <t>*Bottom Left*</t>
+  </si>
+  <si>
+    <t>*Bottom Center*</t>
+  </si>
+  <si>
+    <t>*Bottom Right*</t>
+  </si>
+  <si>
+    <t>*Make content 16 by 9 and crop out right side buttons*</t>
+  </si>
+  <si>
+    <t>*Auto Hide Show Pilot List*</t>
+  </si>
+  <si>
+    <t>*Show Split Times*</t>
+  </si>
+  <si>
+    <t>*Grid Show PBs*</t>
+  </si>
+  <si>
+    <t>*Pre Race Scene*</t>
+  </si>
+  <si>
+    <t>*Post Race Scene*</t>
+  </si>
+  <si>
+    <t>*Always Show Position*</t>
+  </si>
+  <si>
+    <t>*Position and Delta time show time seconds*</t>
+  </si>
+  <si>
+    <t>*Always Small Pilot Profile*</t>
+  </si>
+  <si>
+    <t>*Position And PB*</t>
+  </si>
+  <si>
+    <t>*Channel*</t>
+  </si>
+  <si>
+    <t>*Re Order Delay Seconds*</t>
+  </si>
+  <si>
+    <t>*Re Order Animation Seconds*</t>
+  </si>
+  <si>
+    <t>*Re Order At Holeshot*</t>
+  </si>
+  <si>
+    <t>*Text to speech Volume (0 - 100)*</t>
+  </si>
+  <si>
+    <t>*Voice*</t>
+  </si>
+  <si>
+    <t>*Remaining Seconds To Announce*</t>
+  </si>
+  <si>
+    <t>*Time Trial Staggered Start*</t>
+  </si>
+  <si>
+    <t>*Staggered Start Delay Seconds*</t>
+  </si>
+  <si>
+    <t>*Auto Race Start Video Check*</t>
+  </si>
+  <si>
+    <t>*Auto Race Start Video Check Announcement Seconds*</t>
+  </si>
+  <si>
+    <t>*Channel Grid 1*</t>
+  </si>
+  <si>
+    <t>*Channel Grid 2*</t>
+  </si>
+  <si>
+    <t>*Channel Grid 3*</t>
+  </si>
+  <si>
+    <t>*Channel Grid 4*</t>
+  </si>
+  <si>
+    <t>*Channel Grid 6*</t>
+  </si>
+  <si>
+    <t>*Channel Grid 8*</t>
+  </si>
+  <si>
+    <t>*Channel Grid 10*</t>
+  </si>
+  <si>
+    <t>*Channel Grid 12*</t>
+  </si>
+  <si>
+    <t>*Channel Grid 15*</t>
+  </si>
+  <si>
+    <t>*Channel Grid 16*</t>
+  </si>
+  <si>
+    <t>*Top Event Name*</t>
+  </si>
+  <si>
+    <t>*Top Event Type*</t>
+  </si>
+  <si>
+    <t>*Top Lap Info*</t>
+  </si>
+  <si>
+    <t>*Top Race Time*</t>
+  </si>
+  <si>
+    <t>*Top Remaining Time*</t>
+  </si>
+  <si>
+    <t>*Top Clock (hh:mm)*</t>
+  </si>
+  <si>
+    <t>*Blank area for overlays*</t>
+  </si>
+  <si>
+    <t>*Practice*</t>
+  </si>
+  <si>
+    <t>*Time Trial*</t>
+  </si>
+  <si>
+    <t>*Race*</t>
+  </si>
+  <si>
+    <t>*Freestyle*</t>
+  </si>
+  <si>
+    <t>*Endurance*</t>
+  </si>
+  <si>
+    <t>*Casual Practice*</t>
+  </si>
+  <si>
+    <t>*Notification Serial Port*</t>
+  </si>
+  <si>
+    <t>*Notification URL*</t>
+  </si>
+  <si>
+    <t>*Notification Enabled*</t>
+  </si>
+  <si>
+    <t>*Silly Name Chance*</t>
+  </si>
+  <si>
+    <t>*Pilot Profile Chroma Key*</t>
+  </si>
+  <si>
+    <t>*Red*</t>
+  </si>
+  <si>
+    <t>*Green*</t>
+  </si>
+  <si>
+    <t>*Blue*</t>
+  </si>
+  <si>
+    <t>*Pilot Profile Chroma Key Limit*</t>
+  </si>
+  <si>
+    <t>*Pilot Profile Photobooth Video Length Seconds*</t>
+  </si>
+  <si>
+    <t>*Pilot Profile Repeat Video*</t>
+  </si>
+  <si>
+    <t>*Pilot Profile Boomerang Repeat*</t>
+  </si>
+  <si>
+    <t>*Pilot Profile Hold Length Seconds*</t>
+  </si>
+  <si>
+    <t>*Seconds to show results*</t>
+  </si>
+  <si>
+    <t>*Seconds to next race*</t>
+  </si>
+  <si>
+    <t>*Seconds to finish lap after timer runs out*</t>
+  </si>
+  <si>
+    <t>*Check Pilots Video*</t>
+  </si>
+  <si>
+    <t>*Seconds Delay If Static*</t>
+  </si>
+  <si>
+    <t>*Announce Next Race In*</t>
+  </si>
+  <si>
+    <t>*Next Race In Announce Seconds*</t>
+  </si>
+  <si>
+    <t>*Auto Create Rounds*</t>
+  </si>
+  <si>
+    <t>*Keep Channels*</t>
+  </si>
+  <si>
+    <t>*Random Channels*</t>
+  </si>
+  <si>
+    <t>*Clone Last*</t>
+  </si>
+  <si>
+    <t>*Number*</t>
+  </si>
+  <si>
+    <t>*None*</t>
+  </si>
+  <si>
+    <t>*Fatshark*</t>
+  </si>
+  <si>
+    <t>*Raceband*</t>
+  </si>
+  <si>
+    <t>*A*</t>
+  </si>
+  <si>
+    <t>*B*</t>
+  </si>
+  <si>
+    <t>*E*</t>
+  </si>
+  <si>
+    <t>*DJIFPVHD*</t>
+  </si>
+  <si>
+    <t>*HDZero*</t>
+  </si>
+  <si>
+    <t>*Low Band*</t>
+  </si>
+  <si>
+    <t>*Diatone*</t>
+  </si>
+  <si>
+    <t>*DJIO3*</t>
+  </si>
+  <si>
+    <t>*DJIO4*</t>
+  </si>
+  <si>
+    <t>*Walk Snail*</t>
+  </si>
+  <si>
+    <t>*Frequency*</t>
+  </si>
+  <si>
+    <t>*Display Name*</t>
+  </si>
+  <si>
+    <t>*Enabled*</t>
+  </si>
+  <si>
+    <t>*Name*</t>
+  </si>
+  <si>
+    <t>*Point For Detection*</t>
+  </si>
+  <si>
+    <t>*Capture The Timer*</t>
+  </si>
+  <si>
+    <t>*Pilots Per Team*</t>
+  </si>
+  <si>
+    <t>*Target Points*</t>
+  </si>
+  <si>
+    <t>*Points Remaining Warning*</t>
+  </si>
+  <si>
+    <t>*Detections For Capture*</t>
+  </si>
+  <si>
+    <t>*Seconds Per Point*</t>
+  </si>
+  <si>
+    <t>*Pilot Name*</t>
+  </si>
+  <si>
+    <t>*Phonetic (for Text To Speech)*</t>
+  </si>
+  <si>
+    <t>*First Name*</t>
+  </si>
+  <si>
+    <t>*Last Name*</t>
+  </si>
+  <si>
+    <t>*Silly Name*</t>
+  </si>
+  <si>
+    <t>*Discord ID*</t>
+  </si>
+  <si>
+    <t>*Aircraft*</t>
+  </si>
+  <si>
+    <t>*Catch Phrase*</t>
+  </si>
+  <si>
+    <t>*Best Result*</t>
+  </si>
+  <si>
+    <t>*Timing Sensitivity Percent*</t>
+  </si>
+  <si>
+    <t>*Practice Pilot*</t>
+  </si>
+  <si>
+    <t>*Photo Path*</t>
+  </si>
+  <si>
+    <t>*Multi GP ID*</t>
+  </si>
+  <si>
+    <t>*Drop Worst Round*</t>
+  </si>
+  <si>
+    <t>*Position Points (1st, 2nd, 3rd...)*</t>
+  </si>
+  <si>
+    <t>*DNF For Unfinished Races*</t>
+  </si>
+  <si>
+    <t>*DNF points*</t>
+  </si>
+  <si>
+    <t>*Round position Roll Over into virtual final race (RRO)*</t>
+  </si>
+  <si>
+    <t>*Round Position Rollover*</t>
+  </si>
+  <si>
+    <t>*Laps*</t>
+  </si>
+  <si>
+    <t>*Detections*</t>
+  </si>
+  <si>
+    <t>*Game Points*</t>
+  </si>
+  <si>
+    <t>*Start*</t>
+  </si>
+  <si>
+    <t>*End*</t>
+  </si>
+  <si>
+    <t>*Total Paused Time*</t>
+  </si>
+  <si>
+    <t>*Pilot Count*</t>
+  </si>
+  <si>
+    <t>*Race Number*</t>
+  </si>
+  <si>
+    <t>*Round Number*</t>
+  </si>
+  <si>
+    <t>*Target Laps*</t>
+  </si>
+  <si>
+    <t>*Enduro*</t>
+  </si>
+  <si>
+    <t>*Game*</t>
+  </si>
+  <si>
+    <t>*Unknown*</t>
+  </si>
+  <si>
+    <t>*End Of Lap*</t>
+  </si>
+  <si>
+    <t>*Holeshot*</t>
+  </si>
+  <si>
+    <t>*Valid*</t>
+  </si>
+  <si>
+    <t>*Pilot Names*</t>
+  </si>
+  <si>
+    <t>*Channel Names*</t>
+  </si>
+  <si>
+    <t>*Winners*</t>
+  </si>
+  <si>
+    <t>*Losers*</t>
+  </si>
+  <si>
+    <t>*C*</t>
+  </si>
+  <si>
+    <t>*D*</t>
+  </si>
+  <si>
+    <t>*F*</t>
+  </si>
+  <si>
+    <t>*G*</t>
+  </si>
+  <si>
+    <t>*H*</t>
+  </si>
+  <si>
+    <t>*I*</t>
+  </si>
+  <si>
+    <t>*J*</t>
+  </si>
+  <si>
+    <t>*K*</t>
+  </si>
+  <si>
+    <t>*L*</t>
+  </si>
+  <si>
+    <t>*M*</t>
+  </si>
+  <si>
+    <t>*N*</t>
+  </si>
+  <si>
+    <t>*O*</t>
+  </si>
+  <si>
+    <t>*P*</t>
+  </si>
+  <si>
+    <t>*Q*</t>
+  </si>
+  <si>
+    <t>*R*</t>
+  </si>
+  <si>
+    <t>*S*</t>
+  </si>
+  <si>
+    <t>*T*</t>
+  </si>
+  <si>
+    <t>*U*</t>
+  </si>
+  <si>
+    <t>*V*</t>
+  </si>
+  <si>
+    <t>*W*</t>
+  </si>
+  <si>
+    <t>*X*</t>
+  </si>
+  <si>
+    <t>*Y*</t>
+  </si>
+  <si>
+    <t>*Z*</t>
+  </si>
+  <si>
+    <t>*Scheduled Start*</t>
+  </si>
+  <si>
+    <t>*Race Name*</t>
+  </si>
+  <si>
+    <t>*Round*</t>
+  </si>
+  <si>
+    <t>*Final*</t>
+  </si>
+  <si>
+    <t>*Double Elimination*</t>
+  </si>
+  <si>
+    <t>*Lap Count After Round*</t>
+  </si>
+  <si>
+    <t>*Order*</t>
+  </si>
+  <si>
+    <t>*Sheet Format Filename*</t>
+  </si>
+  <si>
+    <t>*Has Sheet Format*</t>
+  </si>
+  <si>
+    <t>*Game Type Name*</t>
+  </si>
+  <si>
+    <t>*Auto Number Of Races*</t>
+  </si>
+  <si>
+    <t>*Number Of Races*</t>
+  </si>
+  <si>
+    <t>*Minimise Previously Flown*</t>
+  </si>
+  <si>
+    <t>*Ordered*</t>
+  </si>
+  <si>
+    <t>*Seeded*</t>
+  </si>
+  <si>
+    <t>*Change*</t>
+  </si>
+  <si>
+    <t>*Keep From Previous Round*</t>
+  </si>
+  <si>
+    <t>*Channels*</t>
+  </si>
+  <si>
+    <t>*Pilots*</t>
+  </si>
+  <si>
+    <t>*Start Date (y/m/d)*</t>
+  </si>
+  <si>
+    <t>*Pilots Registered*</t>
+  </si>
+  <si>
+    <t>*MultiGP Global Qualifier*</t>
+  </si>
+  <si>
+    <t>*Rules Locked*</t>
+  </si>
+  <si>
+    <t>*PBLaps*</t>
+  </si>
+  <si>
+    <t>*Race Length (Seconds)*</t>
+  </si>
+  <si>
+    <t>*Pack Limit*</t>
+  </si>
+  <si>
+    <t>*Minimum Start Delay (Seconds)*</t>
+  </si>
+  <si>
+    <t>*Maximum Start Delay (Seconds)*</t>
+  </si>
+  <si>
+    <t>*Race Start Ignore Detections (Seconds)*</t>
+  </si>
+  <si>
+    <t>*Smart Minimum Lap Time (Seconds)*</t>
+  </si>
+  <si>
+    <t>*Sync with FPVTrackside.com*</t>
+  </si>
+  <si>
+    <t>*Visible on FPVTrackside.com*</t>
+  </si>
+  <si>
+    <t>*Club Name*</t>
+  </si>
+  <si>
+    <t>*Sync with MultiGP*</t>
+  </si>
+  <si>
+    <t>*Filename*</t>
+  </si>
+  <si>
+    <t>*Font Family*</t>
+  </si>
+  <si>
+    <t>*Include All Rounds*</t>
+  </si>
+  <si>
+    <t>*PB*</t>
+  </si>
+  <si>
+    <t>*Event Lap*</t>
+  </si>
+  <si>
+    <t>*Race Time*</t>
+  </si>
+  <si>
+    <t>*Primary*</t>
+  </si>
+  <si>
+    <t>*Split*</t>
+  </si>
+  <si>
+    <t>*Overlay Text*</t>
+  </si>
+  <si>
+    <t>*Show during Races*</t>
+  </si>
+  <si>
+    <t>*Crop*</t>
+  </si>
+  <si>
+    <t>*Any USB Port*</t>
+  </si>
+  <si>
+    <t>*Video Mode*</t>
+  </si>
+  <si>
+    <t>*Flipped*</t>
+  </si>
+  <si>
+    <t>*Mirrored*</t>
+  </si>
+  <si>
+    <t>*Flipped And Mirrored*</t>
+  </si>
+  <si>
+    <t>*Stop feed when not in use*</t>
+  </si>
+  <si>
+    <t>*Single Channel*</t>
+  </si>
+  <si>
+    <t>*Two By Two*</t>
+  </si>
+  <si>
+    <t>*Three By Two*</t>
+  </si>
+  <si>
+    <t>*Three By Three*</t>
+  </si>
+  <si>
+    <t>*Three By Four*</t>
+  </si>
+  <si>
+    <t>*Four By Two*</t>
+  </si>
+  <si>
+    <t>*Four By Three*</t>
+  </si>
+  <si>
+    <t>*Four By Four*</t>
+  </si>
+  <si>
+    <t>*Custom*</t>
+  </si>
+  <si>
+    <t>*Channel Crop Percent*</t>
+  </si>
+  <si>
+    <t>*Missing GMFBridge*</t>
+  </si>
+  <si>
+    <t>*Record Video For Replays*</t>
+  </si>
+  <si>
+    <t>*Record Resolution*</t>
+  </si>
+  <si>
+    <t>*Record Frame Rate*</t>
+  </si>
+  <si>
+    <t>*Device Latency (seconds)*</t>
+  </si>
+  <si>
+    <t>*Audio Device*</t>
+  </si>
+  <si>
+    <t>*Video Bounds*</t>
+  </si>
+  <si>
+    <t>*Menu*</t>
+  </si>
+  <si>
+    <t>*Cancel*</t>
+  </si>
+  <si>
+    <t>*Download*</t>
+  </si>
+  <si>
+    <t>*Login*</t>
+  </si>
+  <si>
+    <t>*Ok*</t>
+  </si>
+  <si>
+    <t>*Add*</t>
+  </si>
+  <si>
+    <t>*Remove*</t>
+  </si>
+  <si>
+    <t>*Choose*</t>
+  </si>
+  <si>
+    <t>*Recover*</t>
+  </si>
+  <si>
+    <t>*Clone*</t>
+  </si>
+  <si>
+    <t>*Total*</t>
+  </si>
+  <si>
+    <t>*Speak*</t>
+  </si>
+  <si>
+    <t>*Play*</t>
+  </si>
+  <si>
+    <t>*Defaults*</t>
+  </si>
+  <si>
+    <t>*All*</t>
+  </si>
+  <si>
+    <t>*Bracket*</t>
+  </si>
+  <si>
+    <t>*RRO*</t>
+  </si>
+  <si>
+    <t>*Continue*</t>
+  </si>
+  <si>
+    <t>*Online\nManual*</t>
+  </si>
+  <si>
+    <t>*Theme\nSelection*</t>
+  </si>
+  <si>
+    <t>*Video\nSettings*</t>
+  </si>
+  <si>
+    <t>*Channel\nSettings*</t>
+  </si>
+  <si>
+    <t>*Timing\nSettings*</t>
+  </si>
+  <si>
+    <t>*Auto*</t>
+  </si>
+  <si>
+    <t>*Stop*</t>
+  </si>
+  <si>
+    <t>*Next*</t>
+  </si>
+  <si>
+    <t>*Resume*</t>
+  </si>
+  <si>
+    <t>*Restart*</t>
+  </si>
+  <si>
+    <t>*Emgy Stop*</t>
+  </si>
+  <si>
+    <t>*Paste*</t>
+  </si>
+  <si>
+    <t>*Copy*</t>
+  </si>
+  <si>
+    <t>*Clear Race*</t>
+  </si>
+  <si>
+    <t>*Worm*</t>
+  </si>
+  <si>
+    <t>Testing</t>
   </si>
 </sst>
 </file>
@@ -2222,2592 +3077,3569 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D0FF2AF-AEE1-4BE3-8EA4-FB8389BAD60E}">
-  <dimension ref="A2:B323"/>
+  <dimension ref="A1:C323"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="115.140625" customWidth="1"/>
-    <col min="2" max="2" width="69.7109375" customWidth="1"/>
+    <col min="2" max="3" width="69.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C1" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>26</v>
       </c>
       <c r="B15" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>30</v>
       </c>
       <c r="B17" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>32</v>
       </c>
       <c r="B18" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>34</v>
       </c>
       <c r="B19" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>36</v>
       </c>
       <c r="B20" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>38</v>
       </c>
       <c r="B21" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>40</v>
       </c>
       <c r="B22" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>42</v>
       </c>
       <c r="B23" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>44</v>
       </c>
       <c r="B24" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>46</v>
       </c>
       <c r="B25" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>48</v>
       </c>
       <c r="B26" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>50</v>
       </c>
       <c r="B27" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>52</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>54</v>
       </c>
       <c r="B29" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>56</v>
       </c>
       <c r="B30" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>58</v>
       </c>
       <c r="B31" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>60</v>
       </c>
       <c r="B32" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>62</v>
       </c>
       <c r="B33" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>64</v>
       </c>
       <c r="B34" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>66</v>
       </c>
       <c r="B35" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>68</v>
       </c>
       <c r="B36" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>70</v>
       </c>
       <c r="B37" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>72</v>
       </c>
       <c r="B38" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>74</v>
       </c>
       <c r="B39" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>76</v>
       </c>
       <c r="B40" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>77</v>
       </c>
       <c r="B41" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>78</v>
       </c>
       <c r="B42" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>79</v>
       </c>
       <c r="B43" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>80</v>
       </c>
       <c r="B44" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>82</v>
       </c>
       <c r="B45" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>84</v>
       </c>
       <c r="B46" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>86</v>
       </c>
       <c r="B47" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>88</v>
       </c>
       <c r="B48" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>90</v>
       </c>
       <c r="B49" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>92</v>
       </c>
       <c r="B50" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>94</v>
       </c>
       <c r="B51" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>96</v>
       </c>
       <c r="B52" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>98</v>
       </c>
       <c r="B53" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>100</v>
       </c>
       <c r="B54" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>102</v>
       </c>
       <c r="B55" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>104</v>
       </c>
       <c r="B56" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>106</v>
       </c>
       <c r="B57" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>108</v>
       </c>
       <c r="B58" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>110</v>
       </c>
       <c r="B59" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>112</v>
       </c>
       <c r="B60" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>114</v>
       </c>
       <c r="B61" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>116</v>
       </c>
       <c r="B62" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>118</v>
       </c>
       <c r="B63" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>120</v>
       </c>
       <c r="B64" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>122</v>
       </c>
       <c r="B65" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>124</v>
       </c>
       <c r="B66" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>126</v>
       </c>
       <c r="B67" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>128</v>
       </c>
       <c r="B68" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>130</v>
       </c>
       <c r="B69" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>132</v>
       </c>
       <c r="B70" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>134</v>
       </c>
       <c r="B71" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>136</v>
       </c>
       <c r="B72" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>138</v>
       </c>
       <c r="B73" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>140</v>
       </c>
       <c r="B74" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>142</v>
       </c>
       <c r="B75" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>144</v>
       </c>
       <c r="B76" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>146</v>
       </c>
       <c r="B77" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>148</v>
       </c>
       <c r="B78" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>150</v>
       </c>
       <c r="B79" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>152</v>
       </c>
       <c r="B80" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>154</v>
       </c>
       <c r="B81" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>156</v>
       </c>
       <c r="B82" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>158</v>
       </c>
       <c r="B83" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C83" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>160</v>
       </c>
       <c r="B84" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C84" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>162</v>
       </c>
       <c r="B85" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C85" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>164</v>
       </c>
       <c r="B86" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C86" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>166</v>
       </c>
       <c r="B87" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C87" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>168</v>
       </c>
       <c r="B88" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C88" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>170</v>
       </c>
       <c r="B89" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C89" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>172</v>
       </c>
       <c r="B90" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C90" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>174</v>
       </c>
       <c r="B91" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C91" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>176</v>
       </c>
       <c r="B92" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C92" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>178</v>
       </c>
       <c r="B93" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C93" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>180</v>
       </c>
       <c r="B94" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C94" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>182</v>
       </c>
       <c r="B95" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C95" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>184</v>
       </c>
       <c r="B96" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C96" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>186</v>
       </c>
       <c r="B97" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C97" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>188</v>
       </c>
       <c r="B98" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C98" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>190</v>
       </c>
       <c r="B99" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C99" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>192</v>
       </c>
       <c r="B100" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C100" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>194</v>
       </c>
       <c r="B101" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C101" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>196</v>
       </c>
       <c r="B102" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C102" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>198</v>
       </c>
       <c r="B103" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C103" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>200</v>
       </c>
       <c r="B104" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C104" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>202</v>
       </c>
       <c r="B105" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C105" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>204</v>
       </c>
       <c r="B106" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C106" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>206</v>
       </c>
       <c r="B107" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C107" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>208</v>
       </c>
       <c r="B108" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C108" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>210</v>
       </c>
       <c r="B109" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C109" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>212</v>
       </c>
       <c r="B110" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C110" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>214</v>
       </c>
       <c r="B111" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C111" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>216</v>
       </c>
       <c r="B112" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C112" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>218</v>
       </c>
       <c r="B113" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C113" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>220</v>
       </c>
       <c r="B114" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C114" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>222</v>
       </c>
       <c r="B115" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C115" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>224</v>
       </c>
       <c r="B116" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C116" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>226</v>
       </c>
       <c r="B117" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C117" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>228</v>
       </c>
       <c r="B118" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C118" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>230</v>
       </c>
       <c r="B119" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C119" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>231</v>
       </c>
       <c r="B120" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C120" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>233</v>
       </c>
       <c r="B121" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C121" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>235</v>
       </c>
       <c r="B122" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C122" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>237</v>
       </c>
       <c r="B123" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C123" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>239</v>
       </c>
       <c r="B124" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C124" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>241</v>
       </c>
       <c r="B125" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C125" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>243</v>
       </c>
       <c r="B126" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C126" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>245</v>
       </c>
       <c r="B127" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C127" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>247</v>
       </c>
       <c r="B128" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C128" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>249</v>
       </c>
       <c r="B129" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C129" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>251</v>
       </c>
       <c r="B130" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C130" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>253</v>
       </c>
       <c r="B131" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C131" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>255</v>
       </c>
       <c r="B132" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C132" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>257</v>
       </c>
       <c r="B133" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C133" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>259</v>
       </c>
       <c r="B134" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C134" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>261</v>
       </c>
       <c r="B135" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C135" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>263</v>
       </c>
       <c r="B136" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C136" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>265</v>
       </c>
       <c r="B137" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C137" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>267</v>
       </c>
       <c r="B138" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C138" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>269</v>
       </c>
       <c r="B139" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C139" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>271</v>
       </c>
       <c r="B140" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C140" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>273</v>
       </c>
       <c r="B141" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C141" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>275</v>
       </c>
       <c r="B142" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C142" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>277</v>
       </c>
       <c r="B143" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C143" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>279</v>
       </c>
       <c r="B144" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C144" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>281</v>
       </c>
       <c r="B145" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C145" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>283</v>
       </c>
       <c r="B146" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C146" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>284</v>
       </c>
       <c r="B147" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C147" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>286</v>
       </c>
       <c r="B148" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C148" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>288</v>
       </c>
       <c r="B149" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C149" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>290</v>
       </c>
       <c r="B150" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C150" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>292</v>
       </c>
       <c r="B151" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C151" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>294</v>
       </c>
       <c r="B152" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C152" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>296</v>
       </c>
       <c r="B153" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C153" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>298</v>
       </c>
       <c r="B154" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C154" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>300</v>
       </c>
       <c r="B155" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C155" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>302</v>
       </c>
       <c r="B156" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C156" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>304</v>
       </c>
       <c r="B157" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C157" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>305</v>
       </c>
       <c r="B158" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C158" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>306</v>
       </c>
       <c r="B159" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C159" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>307</v>
       </c>
       <c r="B160" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C160" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>308</v>
       </c>
       <c r="B161" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C161" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>310</v>
       </c>
       <c r="B162" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C162" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>311</v>
       </c>
       <c r="B163" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C163" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>313</v>
       </c>
       <c r="B164" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C164" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>315</v>
       </c>
       <c r="B165" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C165" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>317</v>
       </c>
       <c r="B166" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C166" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>319</v>
       </c>
       <c r="B167" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C167" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>321</v>
       </c>
       <c r="B168" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C168" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>323</v>
       </c>
       <c r="B169" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C169" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>325</v>
       </c>
       <c r="B170" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C170" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>326</v>
       </c>
       <c r="B171" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C171" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>328</v>
       </c>
       <c r="B172" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C172" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>330</v>
       </c>
       <c r="B173" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C173" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>331</v>
       </c>
       <c r="B174" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C174" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>332</v>
       </c>
       <c r="B175" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C175" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>334</v>
       </c>
       <c r="B176" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C176" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>336</v>
       </c>
       <c r="B177" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C177" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>337</v>
       </c>
       <c r="B178" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C178" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>339</v>
       </c>
       <c r="B179" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C179" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>341</v>
       </c>
       <c r="B180" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C180" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>343</v>
       </c>
       <c r="B181" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C181" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>345</v>
       </c>
       <c r="B182" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C182" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>347</v>
       </c>
       <c r="B183" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C183" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>349</v>
       </c>
       <c r="B184" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C184" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>351</v>
       </c>
       <c r="B185" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C185" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>353</v>
       </c>
       <c r="B186" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C186" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>355</v>
       </c>
       <c r="B187" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C187" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>357</v>
       </c>
       <c r="B188" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C188" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>359</v>
       </c>
       <c r="B189" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C189" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>361</v>
       </c>
       <c r="B190" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C190" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>363</v>
       </c>
       <c r="B191" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C191" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>365</v>
       </c>
       <c r="B192" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C192" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>367</v>
       </c>
       <c r="B193" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C193" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>369</v>
       </c>
       <c r="B194" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C194" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>371</v>
       </c>
       <c r="B195" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C195" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>373</v>
       </c>
       <c r="B196" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C196" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>375</v>
       </c>
       <c r="B197" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C197" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>377</v>
       </c>
       <c r="B198" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C198" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>379</v>
       </c>
       <c r="B199" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C199" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>381</v>
       </c>
       <c r="B200" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C200" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>383</v>
       </c>
       <c r="B201" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C201" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>384</v>
       </c>
       <c r="B202" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C202" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>385</v>
       </c>
       <c r="B203" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C203" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>386</v>
       </c>
       <c r="B204" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C204" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>387</v>
       </c>
       <c r="B205" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C205" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>388</v>
       </c>
       <c r="B206" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C206" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>389</v>
       </c>
       <c r="B207" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C207" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>390</v>
       </c>
       <c r="B208" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C208" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>391</v>
       </c>
       <c r="B209" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C209" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>392</v>
       </c>
       <c r="B210" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C210" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>393</v>
       </c>
       <c r="B211" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C211" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>395</v>
       </c>
       <c r="B212" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C212" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>397</v>
       </c>
       <c r="B213" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C213" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>399</v>
       </c>
       <c r="B214" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C214" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>400</v>
       </c>
       <c r="B215" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C215" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>402</v>
       </c>
       <c r="B216" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C216" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>404</v>
       </c>
       <c r="B217" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C217" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>406</v>
       </c>
       <c r="B218" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C218" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>407</v>
       </c>
       <c r="B219" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C219" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>409</v>
       </c>
       <c r="B220" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C220" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>411</v>
       </c>
       <c r="B221" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C221" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>413</v>
       </c>
       <c r="B222" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C222" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>415</v>
       </c>
       <c r="B223" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C223" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>417</v>
       </c>
       <c r="B224" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C224" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>419</v>
       </c>
       <c r="B225" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C225" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>421</v>
       </c>
       <c r="B226" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C226" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>423</v>
       </c>
       <c r="B227" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C227" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>425</v>
       </c>
       <c r="B228" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C228" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>427</v>
       </c>
       <c r="B229" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C229" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>429</v>
       </c>
       <c r="B230" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C230" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>430</v>
       </c>
       <c r="B231" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C231" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>432</v>
       </c>
       <c r="B232" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C232" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>434</v>
       </c>
       <c r="B233" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C233" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>435</v>
       </c>
       <c r="B234" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C234" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>437</v>
       </c>
       <c r="B235" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C235" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>439</v>
       </c>
       <c r="B236" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C236" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>440</v>
       </c>
       <c r="B237" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C237" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>442</v>
       </c>
       <c r="B238" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C238" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>444</v>
       </c>
       <c r="B239" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C239" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>446</v>
       </c>
       <c r="B240" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C240" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>448</v>
       </c>
       <c r="B241" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C241" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>450</v>
       </c>
       <c r="B242" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C242" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>451</v>
       </c>
       <c r="B243" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C243" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>452</v>
       </c>
       <c r="B244" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C244" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>454</v>
       </c>
       <c r="B245" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C245" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>456</v>
       </c>
       <c r="B246" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C246" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>458</v>
       </c>
       <c r="B247" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C247" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>460</v>
       </c>
       <c r="B248" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C248" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>462</v>
       </c>
       <c r="B249" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C249" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>464</v>
       </c>
       <c r="B250" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C250" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>466</v>
       </c>
       <c r="B251" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C251" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>468</v>
       </c>
       <c r="B252" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C252" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>470</v>
       </c>
       <c r="B253" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C253" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>472</v>
       </c>
       <c r="B254" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C254" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>474</v>
       </c>
       <c r="B255" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C255" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>476</v>
       </c>
       <c r="B256" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C256" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>478</v>
       </c>
       <c r="B257" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C257" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>480</v>
       </c>
       <c r="B258" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C258" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>482</v>
       </c>
       <c r="B259" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C259" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>483</v>
       </c>
       <c r="B260" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C260" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>484</v>
       </c>
       <c r="B261" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C261" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>485</v>
       </c>
       <c r="B262" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C262" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>486</v>
       </c>
       <c r="B263" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C263" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>488</v>
       </c>
       <c r="B264" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C264" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>490</v>
       </c>
       <c r="B265" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C265" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>492</v>
       </c>
       <c r="B266" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C266" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>494</v>
       </c>
       <c r="B267" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C267" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>495</v>
       </c>
       <c r="B268" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C268" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>497</v>
       </c>
       <c r="B269" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C269" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>499</v>
       </c>
       <c r="B270" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C270" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>501</v>
       </c>
       <c r="B271" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C271" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>503</v>
       </c>
       <c r="B272" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C272" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>505</v>
       </c>
       <c r="B273" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C273" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>507</v>
       </c>
       <c r="B274" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C274" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>509</v>
       </c>
       <c r="B275" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C275" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>511</v>
       </c>
       <c r="B276" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C276" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>513</v>
       </c>
       <c r="B277" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C277" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>515</v>
       </c>
       <c r="B278" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C278" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>517</v>
       </c>
       <c r="B279" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C279" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>519</v>
       </c>
       <c r="B280" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C280" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>521</v>
       </c>
       <c r="B281" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C281" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>523</v>
       </c>
       <c r="B282" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C282" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>525</v>
       </c>
       <c r="B283" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C283" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>527</v>
       </c>
       <c r="B284" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C284" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>529</v>
       </c>
       <c r="B285" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C285" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>531</v>
       </c>
       <c r="B286" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C286" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>533</v>
       </c>
       <c r="B287" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C287" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>535</v>
       </c>
       <c r="B288" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C288" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>537</v>
       </c>
       <c r="B289" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C289" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>539</v>
       </c>
       <c r="B290" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C290" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>541</v>
       </c>
       <c r="B291" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C291" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>543</v>
       </c>
       <c r="B292" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C292" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>545</v>
       </c>
       <c r="B293" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C293" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>547</v>
       </c>
       <c r="B294" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C294" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>549</v>
       </c>
       <c r="B295" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C295" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>551</v>
       </c>
       <c r="B296" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C296" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>553</v>
       </c>
       <c r="B297" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C297" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>555</v>
       </c>
       <c r="B298" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C298" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>557</v>
       </c>
       <c r="B299" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C299" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>559</v>
       </c>
       <c r="B300" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C300" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>561</v>
       </c>
       <c r="B301" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C301" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>563</v>
       </c>
       <c r="B302" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C302" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>565</v>
       </c>
       <c r="B303" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C303" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>567</v>
       </c>
       <c r="B304" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C304" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>568</v>
       </c>
       <c r="B305" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C305" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>570</v>
       </c>
       <c r="B306" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C306" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>572</v>
       </c>
       <c r="B307" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C307" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>574</v>
       </c>
       <c r="B308" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C308" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>576</v>
       </c>
       <c r="B309" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C309" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>578</v>
       </c>
       <c r="B310" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C310" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>580</v>
       </c>
       <c r="B311" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C311" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>582</v>
       </c>
       <c r="B312" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C312" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>584</v>
       </c>
       <c r="B313" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C313" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>586</v>
       </c>
       <c r="B314" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C314" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>587</v>
       </c>
       <c r="B315" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C315" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>589</v>
       </c>
       <c r="B316" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C316" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>591</v>
       </c>
       <c r="B317" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C317" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>593</v>
       </c>
       <c r="B318" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C318" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>595</v>
       </c>
       <c r="B319" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C319" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>597</v>
       </c>
       <c r="B320" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C320" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>599</v>
       </c>
       <c r="B321" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C321" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>601</v>
       </c>
       <c r="B322" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C322" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>603</v>
       </c>
       <c r="B323" t="s">
         <v>604</v>
+      </c>
+      <c r="C323" t="s">
+        <v>888</v>
       </c>
     </row>
   </sheetData>

--- a/UI/Translations.xlsx
+++ b/UI/Translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\FPVTrackside\FPVTracksideCore\UI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABFB99A-D0A8-4ABF-BE1C-03390F6AC967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2C867B-82AA-4BD1-86FF-1FB04F1278CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10545" yWindow="1035" windowWidth="30225" windowHeight="15345" xr2:uid="{E566F940-E218-42A9-AEEE-BA6E31E00AA3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1872" uniqueCount="1785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1874" uniqueCount="1787">
   <si>
     <t>Show Welcome Screen</t>
   </si>
@@ -5391,6 +5391,12 @@
   </si>
   <si>
     <t>*Debug*</t>
+  </si>
+  <si>
+    <t>Japanese</t>
+  </si>
+  <si>
+    <t>人種</t>
   </si>
 </sst>
 </file>
@@ -5762,10 +5768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D0FF2AF-AEE1-4BE3-8EA4-FB8389BAD60E}">
-  <dimension ref="A1:C624"/>
+  <dimension ref="A1:D624"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
+      <selection activeCell="D268" sqref="D268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5773,9 +5779,10 @@
     <col min="1" max="1" width="69.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>111</v>
       </c>
@@ -5785,8 +5792,11 @@
       <c r="C1" t="s">
         <v>1784</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1125</v>
       </c>
@@ -5797,7 +5807,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1126</v>
       </c>
@@ -5808,7 +5818,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1127</v>
       </c>
@@ -5819,7 +5829,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1128</v>
       </c>
@@ -5830,7 +5840,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1129</v>
       </c>
@@ -5841,7 +5851,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1130</v>
       </c>
@@ -5852,7 +5862,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1131</v>
       </c>
@@ -5863,7 +5873,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1132</v>
       </c>
@@ -5874,7 +5884,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1133</v>
       </c>
@@ -5885,7 +5895,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1134</v>
       </c>
@@ -5896,7 +5906,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1135</v>
       </c>
@@ -5907,7 +5917,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1136</v>
       </c>
@@ -5918,7 +5928,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1137</v>
       </c>
@@ -5929,7 +5939,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1138</v>
       </c>
@@ -5940,7 +5950,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1139</v>
       </c>
@@ -8591,7 +8601,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>1507</v>
       </c>
@@ -8602,7 +8612,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>1508</v>
       </c>
@@ -8613,7 +8623,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>1509</v>
       </c>
@@ -8624,7 +8634,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>1510</v>
       </c>
@@ -8635,7 +8645,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>1511</v>
       </c>
@@ -8646,7 +8656,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>1512</v>
       </c>
@@ -8657,7 +8667,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>1513</v>
       </c>
@@ -8668,7 +8678,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>1514</v>
       </c>
@@ -8679,7 +8689,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>1515</v>
       </c>
@@ -8690,7 +8700,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>1516</v>
       </c>
@@ -8701,7 +8711,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>1517</v>
       </c>
@@ -8712,7 +8722,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>1518</v>
       </c>
@@ -8723,7 +8733,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>1519</v>
       </c>
@@ -8734,7 +8744,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>1520</v>
       </c>
@@ -8745,7 +8755,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>1521</v>
       </c>
@@ -8756,7 +8766,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>1522</v>
       </c>
@@ -8765,6 +8775,9 @@
       </c>
       <c r="C272" t="s">
         <v>349</v>
+      </c>
+      <c r="D272" t="s">
+        <v>1786</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
@@ -12641,5 +12654,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/UI/Translations.xlsx
+++ b/UI/Translations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\FPVTrackside\FPVTracksideCore\UI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFE80F5-1DF7-44C3-80D8-FEE6C9193DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66683AA9-F4EF-43BE-9A6A-65598B65E825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4245" yWindow="4245" windowWidth="35820" windowHeight="15345" xr2:uid="{E566F940-E218-42A9-AEEE-BA6E31E00AA3}"/>
+    <workbookView xWindow="6960" yWindow="5235" windowWidth="35820" windowHeight="15345" xr2:uid="{E566F940-E218-42A9-AEEE-BA6E31E00AA3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2640" uniqueCount="2391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2812" uniqueCount="2517">
   <si>
     <t>Show Welcome Screen</t>
   </si>
@@ -5606,12 +5606,6 @@
     <t>ʍǝN</t>
   </si>
   <si>
-    <t>Next</t>
-  </si>
-  <si>
-    <t>ʇxǝN</t>
-  </si>
-  <si>
     <t>ʞO</t>
   </si>
   <si>
@@ -6908,315 +6902,691 @@
     <t>sɹǝʇdɐɥƆ ǝqn┴no⅄</t>
   </si>
   <si>
+    <t>Button.CopytoClipboard</t>
+  </si>
+  <si>
+    <t>Button.Close</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>ǝsolƆ</t>
+  </si>
+  <si>
+    <t>Label.Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> lɐʇo┴</t>
+  </si>
+  <si>
+    <t>Label.AuthKey</t>
+  </si>
+  <si>
+    <t>Auth Key</t>
+  </si>
+  <si>
+    <t>ʎǝʞ ɥʇn∀</t>
+  </si>
+  <si>
+    <t>Label.ChapterAPIKey</t>
+  </si>
+  <si>
+    <t>Chapter API Key</t>
+  </si>
+  <si>
+    <t>ʎǝʞ IԀ∀ ɹǝʇdɐɥƆ</t>
+  </si>
+  <si>
+    <t>Label.Uploadbugreport</t>
+  </si>
+  <si>
+    <t>Upload bug report</t>
+  </si>
+  <si>
+    <t>ʇɹodǝɹ ƃnq pɐold∩</t>
+  </si>
+  <si>
+    <t>Label.Pleaseenteradescriptionbelow.</t>
+  </si>
+  <si>
+    <t>Please enter a description below.</t>
+  </si>
+  <si>
+    <t>.ʍolǝq uoᴉʇdᴉɹɔsǝp ɐ ɹǝʇuǝ ǝsɐǝlԀ</t>
+  </si>
+  <si>
+    <t>Label.Themostrecent64kboflogswillbeuploaded.</t>
+  </si>
+  <si>
+    <t>The most recent 64kb of logs will be uploaded.</t>
+  </si>
+  <si>
+    <t>.pǝpɐoldn ǝq llᴉʍ sƃol ɟo qʞ46 ʇuǝɔǝɹ ʇsoɯ ǝɥ┴</t>
+  </si>
+  <si>
+    <t>Label.Generatedchaptermarkerswillappearhere...</t>
+  </si>
+  <si>
+    <t>Generated chapter markers will appear here...</t>
+  </si>
+  <si>
+    <t>...ǝɹǝɥ ɹɐǝddɐ llᴉʍ sɹǝʞɹɐɯ ɹǝʇdɐɥɔ pǝʇɐɹǝuǝפ</t>
+  </si>
+  <si>
+    <t>Label.Noracesavailable.</t>
+  </si>
+  <si>
+    <t>No races available.</t>
+  </si>
+  <si>
+    <t>.ǝlqɐlᴉɐʌɐ sǝɔɐɹ oN</t>
+  </si>
+  <si>
+    <t>Label.Noracestodisplay.</t>
+  </si>
+  <si>
+    <t>No races to display.</t>
+  </si>
+  <si>
+    <t>.ʎɐldsᴉp oʇ sǝɔɐɹ oN</t>
+  </si>
+  <si>
+    <t>Label.pts</t>
+  </si>
+  <si>
+    <t>pts</t>
+  </si>
+  <si>
+    <t>sʇd</t>
+  </si>
+  <si>
+    <t>Label.Variables</t>
+  </si>
+  <si>
+    <t>Variables</t>
+  </si>
+  <si>
+    <t>sǝlqɐᴉɹɐΛ</t>
+  </si>
+  <si>
+    <t>Label.Triggers</t>
+  </si>
+  <si>
+    <t>Triggers</t>
+  </si>
+  <si>
+    <t>sɹǝƃƃᴉɹ┴</t>
+  </si>
+  <si>
+    <t>Label.Thankyoutoallourwonderfulsupporters.</t>
+  </si>
+  <si>
+    <t>Thank you to all our wonderful supporters.</t>
+  </si>
+  <si>
+    <t>.sɹǝʇɹoddns lnɟɹǝpuoʍ ɹno llɐ oʇ noʎ ʞuɐɥ┴</t>
+  </si>
+  <si>
+    <t>Label.Rightclickhereonthesidepaneltoaddpilotstotheevent.</t>
+  </si>
+  <si>
+    <t>Right click here on the side panel\n to add pilots to the event.</t>
+  </si>
+  <si>
+    <t>.ʇuǝʌǝ ǝɥʇ oʇ sʇolᴉd ppɐ oʇ u\lǝuɐd ǝpᴉs ǝɥʇ uo ǝɹǝɥ ʞɔᴉlɔ ʇɥƃᴉɹ</t>
+  </si>
+  <si>
+    <t>Label.Position</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>uoᴉʇᴉsoԀ</t>
+  </si>
+  <si>
+    <t>Label.Eventinformation</t>
+  </si>
+  <si>
+    <t>Event information</t>
+  </si>
+  <si>
+    <t>uoᴉʇɐɯɹoɟuᴉ ʇuǝʌƎ</t>
+  </si>
+  <si>
+    <t>Label.CapturePoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capture Point </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ʇuᴉoԀ ǝɹnʇdɐƆ</t>
+  </si>
+  <si>
+    <t>Label.PleaseaddavideosourceandassigntocameraPhotoBoothinVideoSettings</t>
+  </si>
+  <si>
+    <t>Please add a video source and assign to camera PhotoBooth in Video Settings</t>
+  </si>
+  <si>
+    <t>sƃuᴉʇʇǝS oǝpᴉΛ uᴉ ɥʇooqoʇoɥԀ ɐɹǝɯɐɔ oʇ uƃᴉssɐ puɐ ǝɔɹnos oǝpᴉʌ ɐ ppɐ ǝsɐǝlԀ</t>
+  </si>
+  <si>
+    <t>Label.REC</t>
+  </si>
+  <si>
+    <t>REC</t>
+  </si>
+  <si>
+    <t>ƆƎɹ</t>
+  </si>
+  <si>
+    <t>Label.Throttle</t>
+  </si>
+  <si>
+    <t>Throttle</t>
+  </si>
+  <si>
+    <t>ǝlʇʇoɹɥ┴</t>
+  </si>
+  <si>
+    <t>Label.Battery</t>
+  </si>
+  <si>
+    <t>Battery</t>
+  </si>
+  <si>
+    <t>ʎɹǝʇʇɐq</t>
+  </si>
+  <si>
+    <t>Label.Thissoftwareisalreadyrunninginanotherinstance.Pleaseclosetheotherinstanceorkillitintaskmanager.</t>
+  </si>
+  <si>
+    <t>This software is already running in another instance.\nPlease close the other instance or kill it in task manager.</t>
+  </si>
+  <si>
+    <t>.ɹǝƃɐuɐɯ ʞsɐʇ uᴉ ʇᴉ llᴉʞ ɹo ǝɔuɐʇsuᴉ ɹǝɥʇo ǝɥʇ ǝsolɔ ǝsɐǝlԀu\.ǝɔuɐʇsuᴉ ɹǝɥʇouɐ uᴉ ƃuᴉuunɹ ʎpɐǝɹlɐ sᴉ ǝɹɐʍʇɟos sᴉɥ┴</t>
+  </si>
+  <si>
+    <t>Label.Loading</t>
+  </si>
+  <si>
+    <t>Loading</t>
+  </si>
+  <si>
+    <t>ƃuᴉpɐo˥</t>
+  </si>
+  <si>
+    <t>Label.Testing</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>ƃuᴉʇsǝ┴</t>
+  </si>
+  <si>
+    <t>Label.Pilots</t>
+  </si>
+  <si>
+    <t>Label.Pilot</t>
+  </si>
+  <si>
+    <t>Pilot</t>
+  </si>
+  <si>
+    <t>ʇolᴉԀ</t>
+  </si>
+  <si>
+    <t>Label.RoundEmptyFinal</t>
+  </si>
+  <si>
+    <t>Label.RoundEmpty</t>
+  </si>
+  <si>
+    <t>Menu.SetFormat</t>
+  </si>
+  <si>
+    <t>Set Format</t>
+  </si>
+  <si>
+    <t>ʇɐɯɹoℲ ʇǝS</t>
+  </si>
+  <si>
+    <t>Menu.AddFormat</t>
+  </si>
+  <si>
+    <t>Add Format</t>
+  </si>
+  <si>
+    <t>ʇɐɯɹoℲ pp∀</t>
+  </si>
+  <si>
+    <t>uewepuep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Next </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ʇxǝN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ll∀</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ǝʌoɯǝɹ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Split </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ʇᴉldS</t>
+  </si>
+  <si>
+    <t>Races will be automatically\nadded as more results come in.</t>
+  </si>
+  <si>
+    <t>.uᴉ ǝɯoɔ sʇlnsǝɹ ǝɹoɯ sɐ pǝppɐu\ʎllɐɔᴉʇɐɯoʇnɐ ǝq llᴉʍ sǝɔɐɹ</t>
+  </si>
+  <si>
+    <t>Right click here to add a races.\nDrag and drop pilots to fill the race.\nAuto-Fill to generate a new round\nPaste pilots from clipboard</t>
+  </si>
+  <si>
+    <t>pɹɐoqdᴉlɔ ɯoɹɟ sʇolᴉd ǝʇsɐԀu\punoɹ ʍǝu ɐ ǝʇɐɹǝuǝƃ oʇ llᴉℲ-oʇn∀u\.ǝɔɐɹ ǝɥʇ llᴉɟ oʇ sʇolᴉd doɹp puɐ ƃɐɹpu\.sǝɔɐɹ ɐ ppɐ oʇ ǝɹǝɥ ʞɔᴉlɔ ʇɥƃᴉɹ</t>
+  </si>
+  <si>
+    <t>Loading.SynchronisingDownEvents</t>
+  </si>
+  <si>
+    <t>Synchronising Down Events</t>
+  </si>
+  <si>
+    <t>sʇuǝʌƎ uʍop ƃuᴉsᴉuoɹɥɔuʎS</t>
+  </si>
+  <si>
+    <t>Loading.DownloadingProfilePictures</t>
+  </si>
+  <si>
+    <t>Downloading Profile Pictures</t>
+  </si>
+  <si>
+    <t>sǝɹnʇɔᴉԀ ǝlᴉɟoɹԀ ƃuᴉpɐoluʍop</t>
+  </si>
+  <si>
+    <t>Loading.SynchronisingUpEvent</t>
+  </si>
+  <si>
+    <t>Synchronising Up Event</t>
+  </si>
+  <si>
+    <t>ʇuǝʌƎ d∩ ƃuᴉsᴉuoɹɥɔuʎS</t>
+  </si>
+  <si>
+    <t>Loading.UploadingPilots</t>
+  </si>
+  <si>
+    <t>Uploading Pilots (</t>
+  </si>
+  <si>
+    <t>( sʇolᴉԀ ƃuᴉpɐold∩</t>
+  </si>
+  <si>
+    <t>Loading.UploadingRounds</t>
+  </si>
+  <si>
+    <t>Uploading Rounds (</t>
+  </si>
+  <si>
+    <t>( spunoɹ ƃuᴉpɐold∩</t>
+  </si>
+  <si>
+    <t>Loading.UploadingResults</t>
+  </si>
+  <si>
+    <t>Uploading Results (</t>
+  </si>
+  <si>
+    <t>( sʇlnsǝɹ ƃuᴉpɐold∩</t>
+  </si>
+  <si>
+    <t>Loading.DownloadingEvents</t>
+  </si>
+  <si>
+    <t>Downloading Events</t>
+  </si>
+  <si>
+    <t>sʇuǝʌƎ ƃuᴉpɐoluʍop</t>
+  </si>
+  <si>
+    <t>Loading.AssigningResults</t>
+  </si>
+  <si>
+    <t>Assigning Results</t>
+  </si>
+  <si>
+    <t>sʇlnsǝɹ ƃuᴉuƃᴉss∀</t>
+  </si>
+  <si>
+    <t>Loading.Finishing</t>
+  </si>
+  <si>
+    <t>Finishing</t>
+  </si>
+  <si>
+    <t>ƃuᴉɥsᴉuᴉℲ</t>
+  </si>
+  <si>
+    <t>Loading.ProcessingResults</t>
+  </si>
+  <si>
+    <t>Processing Results</t>
+  </si>
+  <si>
+    <t>sʇlnsǝɹ ƃuᴉssǝɔoɹԀ</t>
+  </si>
+  <si>
+    <t>Loading.UploadingRaceResults</t>
+  </si>
+  <si>
+    <t>Uploading Race Results</t>
+  </si>
+  <si>
+    <t>sʇlnsǝɹ ǝɔɐɹ ƃuᴉpɐold∩</t>
+  </si>
+  <si>
+    <t>Loading.DownloadingRounds</t>
+  </si>
+  <si>
+    <t>Downloading Rounds</t>
+  </si>
+  <si>
+    <t>spunoɹ ƃuᴉpɐoluʍop</t>
+  </si>
+  <si>
+    <t>Loading.MergingdownloadedRounds</t>
+  </si>
+  <si>
+    <t>Merging downloaded Rounds</t>
+  </si>
+  <si>
+    <t>spunoɹ pǝpɐoluʍop ƃuᴉƃɹǝW</t>
+  </si>
+  <si>
+    <t>Loading.FixingRaceRoundnumbers</t>
+  </si>
+  <si>
+    <t>Fixing Race / Round numbers</t>
+  </si>
+  <si>
+    <t>sɹǝqɯnu punoɹ / ǝɔɐɹ ƃuᴉxᴉℲ</t>
+  </si>
+  <si>
+    <t>Loading.Login</t>
+  </si>
+  <si>
+    <t>Loading.LoadingEvent</t>
+  </si>
+  <si>
+    <t>Loading Event</t>
+  </si>
+  <si>
+    <t>ʇuǝʌƎ ƃuᴉpɐo˥</t>
+  </si>
+  <si>
+    <t>Loading.LoadingGameTypes</t>
+  </si>
+  <si>
+    <t>Loading Game Types</t>
+  </si>
+  <si>
+    <t>sǝdʎ┴ ǝɯɐפ ƃuᴉpɐo˥</t>
+  </si>
+  <si>
+    <t>Loading.FindingProfilePictures</t>
+  </si>
+  <si>
+    <t>Finding Profile Pictures</t>
+  </si>
+  <si>
+    <t>sǝɹnʇɔᴉԀ ǝlᴉɟoɹԀ ƃuᴉpuᴉℲ</t>
+  </si>
+  <si>
+    <t>Loading.Updatingeventobject</t>
+  </si>
+  <si>
+    <t>Updating event object</t>
+  </si>
+  <si>
+    <t>ʇɔǝɾqo ʇuǝʌǝ ƃuᴉʇɐpd∩</t>
+  </si>
+  <si>
+    <t>Loading.LoadingTrack</t>
+  </si>
+  <si>
+    <t>Loading Track</t>
+  </si>
+  <si>
+    <t>ʞɔɐɹ┴ ƃuᴉpɐo˥</t>
+  </si>
+  <si>
+    <t>Loading.UnloadingRaces</t>
+  </si>
+  <si>
+    <t>Unloading Races</t>
+  </si>
+  <si>
+    <t>sǝɔɐɹ ƃuᴉpɐolu∩</t>
+  </si>
+  <si>
+    <t>Loading.UnloadingResults</t>
+  </si>
+  <si>
+    <t>Unloading Results</t>
+  </si>
+  <si>
+    <t>sʇlnsǝɹ ƃuᴉpɐolu∩</t>
+  </si>
+  <si>
+    <t>Loading.UnloadingRecords</t>
+  </si>
+  <si>
+    <t>Unloading Records</t>
+  </si>
+  <si>
+    <t>spɹoɔǝɹ ƃuᴉpɐolu∩</t>
+  </si>
+  <si>
+    <t>Loading.LoadingSheets</t>
+  </si>
+  <si>
+    <t>Loading Sheets</t>
+  </si>
+  <si>
+    <t>sʇǝǝɥS ƃuᴉpɐo˥</t>
+  </si>
+  <si>
+    <t>Loading.LoadingRaces</t>
+  </si>
+  <si>
+    <t>Loading Races</t>
+  </si>
+  <si>
+    <t>sǝɔɐɹ ƃuᴉpɐo˥</t>
+  </si>
+  <si>
+    <t>Loading.RoundRepair</t>
+  </si>
+  <si>
+    <t>RoundRepair</t>
+  </si>
+  <si>
+    <t>ɹᴉɐdǝɹpunoɹ</t>
+  </si>
+  <si>
+    <t>Loading.LoadingResults</t>
+  </si>
+  <si>
+    <t>Loading Results</t>
+  </si>
+  <si>
+    <t>sʇlnsǝɹ ƃuᴉpɐo˥</t>
+  </si>
+  <si>
+    <t>Loading.UpdatingRecords</t>
+  </si>
+  <si>
+    <t>Updating Records</t>
+  </si>
+  <si>
+    <t>spɹoɔǝɹ ƃuᴉʇɐpd∩</t>
+  </si>
+  <si>
+    <t>Loading.OnStartEvent</t>
+  </si>
+  <si>
+    <t>On Start Event</t>
+  </si>
+  <si>
+    <t>ʇuǝʌƎ ʇɹɐʇS uO</t>
+  </si>
+  <si>
+    <t>Loading.LoadingSettings</t>
+  </si>
+  <si>
+    <t>Loading Settings</t>
+  </si>
+  <si>
+    <t>sƃuᴉʇʇǝS ƃuᴉpɐo˥</t>
+  </si>
+  <si>
+    <t>Loading.LoadingTheme</t>
+  </si>
+  <si>
+    <t>Loading Theme</t>
+  </si>
+  <si>
+    <t>ǝɯǝɥ┴ ƃuᴉpɐo˥</t>
+  </si>
+  <si>
+    <t>Loading.InitializingUI</t>
+  </si>
+  <si>
+    <t>Initializing UI</t>
+  </si>
+  <si>
+    <t>I∩ ƃuᴉzᴉlɐᴉʇᴉuI</t>
+  </si>
+  <si>
+    <t>Loading.InitializingVideoInputs</t>
+  </si>
+  <si>
+    <t>Initializing Video Inputs</t>
+  </si>
+  <si>
+    <t>sʇnduI oǝpᴉΛ ƃuᴉzᴉlɐᴉʇᴉuI</t>
+  </si>
+  <si>
+    <t>Loading.Cleaningupoldvideofiles</t>
+  </si>
+  <si>
+    <t>Cleaning up old video files</t>
+  </si>
+  <si>
+    <t>sǝlᴉɟ oǝpᴉʌ plo dn ƃuᴉuɐǝlƆ</t>
+  </si>
+  <si>
+    <t>Loading.SettingScene</t>
+  </si>
+  <si>
+    <t>Setting Scene</t>
+  </si>
+  <si>
+    <t>ǝuǝɔS ƃuᴉʇʇǝS</t>
+  </si>
+  <si>
+    <t>AutoRunner.Paused</t>
+  </si>
+  <si>
+    <t>Paused</t>
+  </si>
+  <si>
+    <t>pǝsnɐԀ</t>
+  </si>
+  <si>
+    <t>AutoRunner.Auto</t>
+  </si>
+  <si>
+    <t>AutoRunner.Start</t>
+  </si>
+  <si>
+    <t>AutoRunner.FinalLap</t>
+  </si>
+  <si>
+    <t>Final Lap</t>
+  </si>
+  <si>
+    <t>dɐ˥ lɐuᴉℲ</t>
+  </si>
+  <si>
+    <t>AutoRunner.Results</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>sʇlnsǝɹ</t>
+  </si>
+  <si>
+    <t>AutoRunner.Video</t>
+  </si>
+  <si>
+    <t>Video issue</t>
+  </si>
+  <si>
+    <t>ǝnssᴉ oǝpᴉΛ</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>Button.CopytoClipboard</t>
-  </si>
-  <si>
-    <t>Button.Close</t>
-  </si>
-  <si>
-    <t>Close</t>
-  </si>
-  <si>
-    <t>ǝsolƆ</t>
-  </si>
-  <si>
-    <t>Label.Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> lɐʇo┴</t>
-  </si>
-  <si>
-    <t>Label.AuthKey</t>
-  </si>
-  <si>
-    <t>Auth Key</t>
-  </si>
-  <si>
-    <t>ʎǝʞ ɥʇn∀</t>
-  </si>
-  <si>
-    <t>Label.ChapterAPIKey</t>
-  </si>
-  <si>
-    <t>Chapter API Key</t>
-  </si>
-  <si>
-    <t>ʎǝʞ IԀ∀ ɹǝʇdɐɥƆ</t>
-  </si>
-  <si>
-    <t>Label.Uploadbugreport</t>
-  </si>
-  <si>
-    <t>Upload bug report</t>
-  </si>
-  <si>
-    <t>ʇɹodǝɹ ƃnq pɐold∩</t>
-  </si>
-  <si>
-    <t>Label.Pleaseenteradescriptionbelow.</t>
-  </si>
-  <si>
-    <t>Please enter a description below.</t>
-  </si>
-  <si>
-    <t>.ʍolǝq uoᴉʇdᴉɹɔsǝp ɐ ɹǝʇuǝ ǝsɐǝlԀ</t>
-  </si>
-  <si>
-    <t>Label.Themostrecent64kboflogswillbeuploaded.</t>
-  </si>
-  <si>
-    <t>The most recent 64kb of logs will be uploaded.</t>
-  </si>
-  <si>
-    <t>.pǝpɐoldn ǝq llᴉʍ sƃol ɟo qʞ46 ʇuǝɔǝɹ ʇsoɯ ǝɥ┴</t>
-  </si>
-  <si>
-    <t>Label.Generatedchaptermarkerswillappearhere...</t>
-  </si>
-  <si>
-    <t>Generated chapter markers will appear here...</t>
-  </si>
-  <si>
-    <t>...ǝɹǝɥ ɹɐǝddɐ llᴉʍ sɹǝʞɹɐɯ ɹǝʇdɐɥɔ pǝʇɐɹǝuǝפ</t>
-  </si>
-  <si>
-    <t>Label.Noracesavailable.</t>
-  </si>
-  <si>
-    <t>No races available.</t>
-  </si>
-  <si>
-    <t>.ǝlqɐlᴉɐʌɐ sǝɔɐɹ oN</t>
-  </si>
-  <si>
-    <t>Label.Noracestodisplay.</t>
-  </si>
-  <si>
-    <t>No races to display.</t>
-  </si>
-  <si>
-    <t>.ʎɐldsᴉp oʇ sǝɔɐɹ oN</t>
-  </si>
-  <si>
-    <t>Label.pts</t>
-  </si>
-  <si>
-    <t>pts</t>
-  </si>
-  <si>
-    <t>sʇd</t>
-  </si>
-  <si>
-    <t>Label.Variables</t>
-  </si>
-  <si>
-    <t>Variables</t>
-  </si>
-  <si>
-    <t>sǝlqɐᴉɹɐΛ</t>
-  </si>
-  <si>
-    <t>Label.Triggers</t>
-  </si>
-  <si>
-    <t>Triggers</t>
-  </si>
-  <si>
-    <t>sɹǝƃƃᴉɹ┴</t>
-  </si>
-  <si>
-    <t>Label.Thankyoutoallourwonderfulsupporters.</t>
-  </si>
-  <si>
-    <t>Thank you to all our wonderful supporters.</t>
-  </si>
-  <si>
-    <t>.sɹǝʇɹoddns lnɟɹǝpuoʍ ɹno llɐ oʇ noʎ ʞuɐɥ┴</t>
-  </si>
-  <si>
-    <t>Label.Rightclickhereonthesidepaneltoaddpilotstotheevent.</t>
-  </si>
-  <si>
-    <t>Right click here on the side panel\n to add pilots to the event.</t>
-  </si>
-  <si>
-    <t>.ʇuǝʌǝ ǝɥʇ oʇ sʇolᴉd ppɐ oʇ u\lǝuɐd ǝpᴉs ǝɥʇ uo ǝɹǝɥ ʞɔᴉlɔ ʇɥƃᴉɹ</t>
-  </si>
-  <si>
-    <t>Label.Position</t>
-  </si>
-  <si>
-    <t>Position</t>
-  </si>
-  <si>
-    <t>uoᴉʇᴉsoԀ</t>
-  </si>
-  <si>
-    <t>Label.Eventinformation</t>
-  </si>
-  <si>
-    <t>Event information</t>
-  </si>
-  <si>
-    <t>uoᴉʇɐɯɹoɟuᴉ ʇuǝʌƎ</t>
-  </si>
-  <si>
-    <t>Label.CapturePoint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capture Point </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ʇuᴉoԀ ǝɹnʇdɐƆ</t>
-  </si>
-  <si>
-    <t>Label.PleaseaddavideosourceandassigntocameraPhotoBoothinVideoSettings</t>
-  </si>
-  <si>
-    <t>Please add a video source and assign to camera PhotoBooth in Video Settings</t>
-  </si>
-  <si>
-    <t>sƃuᴉʇʇǝS oǝpᴉΛ uᴉ ɥʇooqoʇoɥԀ ɐɹǝɯɐɔ oʇ uƃᴉssɐ puɐ ǝɔɹnos oǝpᴉʌ ɐ ppɐ ǝsɐǝlԀ</t>
-  </si>
-  <si>
-    <t>Label.REC</t>
-  </si>
-  <si>
-    <t>REC</t>
-  </si>
-  <si>
-    <t>ƆƎɹ</t>
-  </si>
-  <si>
-    <t>Label.Throttle</t>
-  </si>
-  <si>
-    <t>Throttle</t>
-  </si>
-  <si>
-    <t>ǝlʇʇoɹɥ┴</t>
-  </si>
-  <si>
-    <t>Label.Battery</t>
-  </si>
-  <si>
-    <t>Battery</t>
-  </si>
-  <si>
-    <t>ʎɹǝʇʇɐq</t>
-  </si>
-  <si>
-    <t>Label.Thissoftwareisalreadyrunninginanotherinstance.Pleaseclosetheotherinstanceorkillitintaskmanager.</t>
-  </si>
-  <si>
-    <t>This software is already running in another instance.\nPlease close the other instance or kill it in task manager.</t>
-  </si>
-  <si>
-    <t>.ɹǝƃɐuɐɯ ʞsɐʇ uᴉ ʇᴉ llᴉʞ ɹo ǝɔuɐʇsuᴉ ɹǝɥʇo ǝɥʇ ǝsolɔ ǝsɐǝlԀu\.ǝɔuɐʇsuᴉ ɹǝɥʇouɐ uᴉ ƃuᴉuunɹ ʎpɐǝɹlɐ sᴉ ǝɹɐʍʇɟos sᴉɥ┴</t>
-  </si>
-  <si>
-    <t>Label.Loading</t>
-  </si>
-  <si>
-    <t>Loading</t>
-  </si>
-  <si>
-    <t>ƃuᴉpɐo˥</t>
-  </si>
-  <si>
-    <t>Label.Testing</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>ƃuᴉʇsǝ┴</t>
-  </si>
-  <si>
-    <t>Label.Pilots</t>
-  </si>
-  <si>
-    <t>Label.Pilot</t>
-  </si>
-  <si>
-    <t>Pilot</t>
-  </si>
-  <si>
-    <t>ʇolᴉԀ</t>
-  </si>
-  <si>
-    <t>Label.RoundEmptyFinal</t>
-  </si>
-  <si>
-    <t>Races will be automatically
-added as more results come in.</t>
-  </si>
-  <si>
-    <t>.uᴉ ǝɯoɔ sʇlnsǝɹ ǝɹoɯ sɐ pǝppɐ
-ʎllɐɔᴉʇɐɯoʇnɐ ǝq llᴉʍ sǝɔɐɹ</t>
-  </si>
-  <si>
-    <t>Label.RoundEmpty</t>
-  </si>
-  <si>
-    <t>Right click here to add a races.
-Drag and drop pilots to fill the race.
-Auto-Fill to generate a new round
-Paste pilots from clipboard</t>
-  </si>
-  <si>
-    <t>pɹɐoqdᴉlɔ ɯoɹɟ sʇolᴉd ǝʇsɐԀ
-punoɹ ʍǝu ɐ ǝʇɐɹǝuǝƃ oʇ llᴉℲ-oʇn∀
-.ǝɔɐɹ ǝɥʇ llᴉɟ oʇ sʇolᴉd doɹp puɐ ƃɐɹp
-.sǝɔɐɹ ɐ ppɐ oʇ ǝɹǝɥ ʞɔᴉlɔ ʇɥƃᴉɹ</t>
-  </si>
-  <si>
-    <t>Label.10FPS</t>
-  </si>
-  <si>
-    <t>10 FPS</t>
-  </si>
-  <si>
-    <t>*10 FPS*</t>
-  </si>
-  <si>
-    <t>Label.test</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>*test*</t>
-  </si>
-  <si>
-    <t>*Pilot*</t>
-  </si>
-  <si>
-    <t>Menu.SetFormat</t>
-  </si>
-  <si>
-    <t>Set Format</t>
-  </si>
-  <si>
-    <t>ʇɐɯɹoℲ ʇǝS</t>
-  </si>
-  <si>
-    <t>Menu.AddFormat</t>
-  </si>
-  <si>
-    <t>Add Format</t>
-  </si>
-  <si>
-    <t>ʇɐɯɹoℲ pp∀</t>
-  </si>
-  <si>
-    <t>uewepuep</t>
+    <t>Button.PrevRace</t>
+  </si>
+  <si>
+    <t>Prev Race</t>
+  </si>
+  <si>
+    <t>ǝɔɐɹ ʌǝɹԀ</t>
+  </si>
+  <si>
+    <t>Button.CurrentRace</t>
+  </si>
+  <si>
+    <t>Current Race</t>
+  </si>
+  <si>
+    <t>ǝɔɐɹ ʇuǝɹɹnƆ</t>
+  </si>
+  <si>
+    <t>Button.NextRace</t>
+  </si>
+  <si>
+    <t>Next Race</t>
+  </si>
+  <si>
+    <t>ǝɔɐɹ ʇxǝN</t>
+  </si>
+  <si>
+    <t>Button.Results</t>
   </si>
 </sst>
 </file>
@@ -7597,21 +7967,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D0FF2AF-AEE1-4BE3-8EA4-FB8389BAD60E}">
-  <dimension ref="A1:D660"/>
+  <dimension ref="A1:D703"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="97.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="117.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="114.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.7109375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>111</v>
       </c>
@@ -7619,7 +7983,7 @@
         <v>276</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2390</v>
+        <v>2376</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1195</v>
@@ -9800,10 +10164,10 @@
         <v>830</v>
       </c>
       <c r="B157" t="s">
-        <v>1856</v>
+        <v>2377</v>
       </c>
       <c r="C157" t="s">
-        <v>1857</v>
+        <v>2378</v>
       </c>
       <c r="D157" t="s">
         <v>1499</v>
@@ -9817,7 +10181,7 @@
         <v>253</v>
       </c>
       <c r="C158" t="s">
-        <v>1858</v>
+        <v>1856</v>
       </c>
       <c r="D158" t="s">
         <v>1226</v>
@@ -9828,10 +10192,10 @@
         <v>832</v>
       </c>
       <c r="B159" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
       <c r="C159" t="s">
-        <v>1860</v>
+        <v>1858</v>
       </c>
       <c r="D159" t="s">
         <v>1344</v>
@@ -9845,7 +10209,7 @@
         <v>324</v>
       </c>
       <c r="C160" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
       <c r="D160" t="s">
         <v>1227</v>
@@ -9859,7 +10223,7 @@
         <v>372</v>
       </c>
       <c r="C161" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
       <c r="D161" t="s">
         <v>1500</v>
@@ -9873,7 +10237,7 @@
         <v>373</v>
       </c>
       <c r="C162" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
       <c r="D162" t="s">
         <v>1501</v>
@@ -9887,7 +10251,7 @@
         <v>272</v>
       </c>
       <c r="C163" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
       <c r="D163" t="s">
         <v>1228</v>
@@ -9901,7 +10265,7 @@
         <v>374</v>
       </c>
       <c r="C164" t="s">
-        <v>1865</v>
+        <v>1863</v>
       </c>
       <c r="D164" t="s">
         <v>1229</v>
@@ -9915,7 +10279,7 @@
         <v>375</v>
       </c>
       <c r="C165" t="s">
-        <v>1866</v>
+        <v>1864</v>
       </c>
       <c r="D165" t="s">
         <v>1230</v>
@@ -9929,7 +10293,7 @@
         <v>551</v>
       </c>
       <c r="C166" t="s">
-        <v>1867</v>
+        <v>1865</v>
       </c>
       <c r="D166" t="s">
         <v>1231</v>
@@ -9943,7 +10307,7 @@
         <v>552</v>
       </c>
       <c r="C167" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
       <c r="D167" t="s">
         <v>1502</v>
@@ -9957,7 +10321,7 @@
         <v>199</v>
       </c>
       <c r="C168" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
       <c r="D168" t="s">
         <v>1232</v>
@@ -9971,7 +10335,7 @@
         <v>261</v>
       </c>
       <c r="C169" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
       <c r="D169" t="s">
         <v>1233</v>
@@ -9985,7 +10349,7 @@
         <v>313</v>
       </c>
       <c r="C170" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="D170" t="s">
         <v>1234</v>
@@ -9999,7 +10363,7 @@
         <v>220</v>
       </c>
       <c r="C171" t="s">
-        <v>1872</v>
+        <v>1870</v>
       </c>
       <c r="D171" t="s">
         <v>1503</v>
@@ -10013,7 +10377,7 @@
         <v>378</v>
       </c>
       <c r="C172" t="s">
-        <v>1873</v>
+        <v>1871</v>
       </c>
       <c r="D172" t="s">
         <v>1504</v>
@@ -10027,7 +10391,7 @@
         <v>257</v>
       </c>
       <c r="C173" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
       <c r="D173" t="s">
         <v>1505</v>
@@ -10041,7 +10405,7 @@
         <v>255</v>
       </c>
       <c r="C174" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
       <c r="D174" t="s">
         <v>1235</v>
@@ -10055,7 +10419,7 @@
         <v>316</v>
       </c>
       <c r="C175" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="D175" t="s">
         <v>1236</v>
@@ -10069,7 +10433,7 @@
         <v>270</v>
       </c>
       <c r="C176" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="D176" t="s">
         <v>1506</v>
@@ -10083,7 +10447,7 @@
         <v>269</v>
       </c>
       <c r="C177" t="s">
-        <v>1878</v>
+        <v>1876</v>
       </c>
       <c r="D177" t="s">
         <v>1237</v>
@@ -10097,7 +10461,7 @@
         <v>317</v>
       </c>
       <c r="C178" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="D178" t="s">
         <v>1238</v>
@@ -10111,7 +10475,7 @@
         <v>265</v>
       </c>
       <c r="C179" t="s">
-        <v>1880</v>
+        <v>1878</v>
       </c>
       <c r="D179" t="s">
         <v>1507</v>
@@ -10125,7 +10489,7 @@
         <v>553</v>
       </c>
       <c r="C180" t="s">
-        <v>1881</v>
+        <v>1879</v>
       </c>
       <c r="D180" t="s">
         <v>1508</v>
@@ -10139,7 +10503,7 @@
         <v>379</v>
       </c>
       <c r="C181" t="s">
-        <v>1882</v>
+        <v>1880</v>
       </c>
       <c r="D181" t="s">
         <v>1239</v>
@@ -10153,7 +10517,7 @@
         <v>380</v>
       </c>
       <c r="C182" t="s">
-        <v>1883</v>
+        <v>1881</v>
       </c>
       <c r="D182" t="s">
         <v>1509</v>
@@ -10167,7 +10531,7 @@
         <v>260</v>
       </c>
       <c r="C183" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D183" t="s">
         <v>1510</v>
@@ -10181,7 +10545,7 @@
         <v>141</v>
       </c>
       <c r="C184" t="s">
-        <v>1885</v>
+        <v>1883</v>
       </c>
       <c r="D184" t="s">
         <v>1511</v>
@@ -10195,7 +10559,7 @@
         <v>268</v>
       </c>
       <c r="C185" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
       <c r="D185" t="s">
         <v>1240</v>
@@ -10209,7 +10573,7 @@
         <v>381</v>
       </c>
       <c r="C186" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
       <c r="D186" t="s">
         <v>1512</v>
@@ -10220,10 +10584,10 @@
         <v>853</v>
       </c>
       <c r="B187" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
       <c r="C187" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
       <c r="D187" t="s">
         <v>1513</v>
@@ -10234,10 +10598,10 @@
         <v>854</v>
       </c>
       <c r="B188" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
       <c r="C188" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
       <c r="D188" t="s">
         <v>1366</v>
@@ -10251,7 +10615,7 @@
         <v>259</v>
       </c>
       <c r="C189" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
       <c r="D189" t="s">
         <v>1241</v>
@@ -10265,7 +10629,7 @@
         <v>755</v>
       </c>
       <c r="C190" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="D190" t="s">
         <v>1242</v>
@@ -10276,10 +10640,10 @@
         <v>856</v>
       </c>
       <c r="B191" t="s">
-        <v>1894</v>
+        <v>1892</v>
       </c>
       <c r="C191" t="s">
-        <v>1895</v>
+        <v>1893</v>
       </c>
       <c r="D191" t="s">
         <v>1514</v>
@@ -10293,7 +10657,7 @@
         <v>275</v>
       </c>
       <c r="C192" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="D192" t="s">
         <v>1515</v>
@@ -10307,7 +10671,7 @@
         <v>284</v>
       </c>
       <c r="C193" t="s">
-        <v>1897</v>
+        <v>1895</v>
       </c>
       <c r="D193" t="s">
         <v>1516</v>
@@ -10321,7 +10685,7 @@
         <v>109</v>
       </c>
       <c r="C194" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="D194" t="s">
         <v>1243</v>
@@ -10335,7 +10699,7 @@
         <v>108</v>
       </c>
       <c r="C195" t="s">
-        <v>1899</v>
+        <v>1897</v>
       </c>
       <c r="D195" t="s">
         <v>1244</v>
@@ -10349,7 +10713,7 @@
         <v>94</v>
       </c>
       <c r="C196" t="s">
-        <v>1900</v>
+        <v>1898</v>
       </c>
       <c r="D196" t="s">
         <v>1517</v>
@@ -10363,7 +10727,7 @@
         <v>196</v>
       </c>
       <c r="C197" t="s">
-        <v>1901</v>
+        <v>1899</v>
       </c>
       <c r="D197" t="s">
         <v>1245</v>
@@ -10377,7 +10741,7 @@
         <v>197</v>
       </c>
       <c r="C198" t="s">
-        <v>1902</v>
+        <v>1900</v>
       </c>
       <c r="D198" t="s">
         <v>1518</v>
@@ -10391,7 +10755,7 @@
         <v>77</v>
       </c>
       <c r="C199" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
       <c r="D199" t="s">
         <v>1246</v>
@@ -10405,7 +10769,7 @@
         <v>76</v>
       </c>
       <c r="C200" t="s">
-        <v>1904</v>
+        <v>1902</v>
       </c>
       <c r="D200" t="s">
         <v>1247</v>
@@ -10419,7 +10783,7 @@
         <v>75</v>
       </c>
       <c r="C201" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="D201" t="s">
         <v>1248</v>
@@ -10433,7 +10797,7 @@
         <v>299</v>
       </c>
       <c r="C202" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="D202" t="s">
         <v>1519</v>
@@ -10447,7 +10811,7 @@
         <v>300</v>
       </c>
       <c r="C203" t="s">
-        <v>1907</v>
+        <v>1905</v>
       </c>
       <c r="D203" t="s">
         <v>1249</v>
@@ -10461,7 +10825,7 @@
         <v>325</v>
       </c>
       <c r="C204" t="s">
-        <v>1908</v>
+        <v>1906</v>
       </c>
       <c r="D204" t="s">
         <v>1520</v>
@@ -10475,7 +10839,7 @@
         <v>326</v>
       </c>
       <c r="C205" t="s">
-        <v>1909</v>
+        <v>1907</v>
       </c>
       <c r="D205" t="s">
         <v>1521</v>
@@ -10489,7 +10853,7 @@
         <v>301</v>
       </c>
       <c r="C206" t="s">
-        <v>1910</v>
+        <v>1908</v>
       </c>
       <c r="D206" t="s">
         <v>1522</v>
@@ -10503,7 +10867,7 @@
         <v>198</v>
       </c>
       <c r="C207" t="s">
-        <v>1911</v>
+        <v>1909</v>
       </c>
       <c r="D207" t="s">
         <v>1250</v>
@@ -10517,7 +10881,7 @@
         <v>302</v>
       </c>
       <c r="C208" t="s">
-        <v>1912</v>
+        <v>1910</v>
       </c>
       <c r="D208" t="s">
         <v>1251</v>
@@ -10531,7 +10895,7 @@
         <v>303</v>
       </c>
       <c r="C209" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
       <c r="D209" t="s">
         <v>1523</v>
@@ -10545,7 +10909,7 @@
         <v>304</v>
       </c>
       <c r="C210" t="s">
-        <v>1914</v>
+        <v>1912</v>
       </c>
       <c r="D210" t="s">
         <v>1252</v>
@@ -10559,7 +10923,7 @@
         <v>305</v>
       </c>
       <c r="C211" t="s">
-        <v>1915</v>
+        <v>1913</v>
       </c>
       <c r="D211" t="s">
         <v>1253</v>
@@ -10573,7 +10937,7 @@
         <v>306</v>
       </c>
       <c r="C212" t="s">
-        <v>1916</v>
+        <v>1914</v>
       </c>
       <c r="D212" t="s">
         <v>1254</v>
@@ -10587,7 +10951,7 @@
         <v>327</v>
       </c>
       <c r="C213" t="s">
-        <v>1917</v>
+        <v>1915</v>
       </c>
       <c r="D213" t="s">
         <v>1524</v>
@@ -10601,7 +10965,7 @@
         <v>328</v>
       </c>
       <c r="C214" t="s">
-        <v>1918</v>
+        <v>1916</v>
       </c>
       <c r="D214" t="s">
         <v>1255</v>
@@ -10615,7 +10979,7 @@
         <v>329</v>
       </c>
       <c r="C215" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
       <c r="D215" t="s">
         <v>1256</v>
@@ -10629,7 +10993,7 @@
         <v>330</v>
       </c>
       <c r="C216" t="s">
-        <v>1920</v>
+        <v>1918</v>
       </c>
       <c r="D216" t="s">
         <v>1525</v>
@@ -10643,7 +11007,7 @@
         <v>331</v>
       </c>
       <c r="C217" t="s">
-        <v>1921</v>
+        <v>1919</v>
       </c>
       <c r="D217" t="s">
         <v>1257</v>
@@ -10657,7 +11021,7 @@
         <v>332</v>
       </c>
       <c r="C218" t="s">
-        <v>1922</v>
+        <v>1920</v>
       </c>
       <c r="D218" t="s">
         <v>1526</v>
@@ -10671,7 +11035,7 @@
         <v>307</v>
       </c>
       <c r="C219" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
       <c r="D219" t="s">
         <v>1258</v>
@@ -10685,7 +11049,7 @@
         <v>333</v>
       </c>
       <c r="C220" t="s">
-        <v>1924</v>
+        <v>1922</v>
       </c>
       <c r="D220" t="s">
         <v>1527</v>
@@ -10699,7 +11063,7 @@
         <v>334</v>
       </c>
       <c r="C221" t="s">
-        <v>1925</v>
+        <v>1923</v>
       </c>
       <c r="D221" t="s">
         <v>1528</v>
@@ -10713,7 +11077,7 @@
         <v>138</v>
       </c>
       <c r="C222" t="s">
-        <v>1926</v>
+        <v>1924</v>
       </c>
       <c r="D222" t="s">
         <v>1259</v>
@@ -10727,7 +11091,7 @@
         <v>308</v>
       </c>
       <c r="C223" t="s">
-        <v>1927</v>
+        <v>1925</v>
       </c>
       <c r="D223" t="s">
         <v>1260</v>
@@ -10741,7 +11105,7 @@
         <v>335</v>
       </c>
       <c r="C224" t="s">
-        <v>1928</v>
+        <v>1926</v>
       </c>
       <c r="D224" t="s">
         <v>1529</v>
@@ -10755,7 +11119,7 @@
         <v>111</v>
       </c>
       <c r="C225" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
       <c r="D225" t="s">
         <v>1261</v>
@@ -10769,7 +11133,7 @@
         <v>309</v>
       </c>
       <c r="C226" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
       <c r="D226" t="s">
         <v>1262</v>
@@ -10783,7 +11147,7 @@
         <v>336</v>
       </c>
       <c r="C227" t="s">
-        <v>1931</v>
+        <v>1929</v>
       </c>
       <c r="D227" t="s">
         <v>1263</v>
@@ -10797,7 +11161,7 @@
         <v>310</v>
       </c>
       <c r="C228" t="s">
-        <v>1932</v>
+        <v>1930</v>
       </c>
       <c r="D228" t="s">
         <v>1264</v>
@@ -10811,7 +11175,7 @@
         <v>311</v>
       </c>
       <c r="C229" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="D229" t="s">
         <v>1265</v>
@@ -10825,7 +11189,7 @@
         <v>312</v>
       </c>
       <c r="C230" t="s">
-        <v>1934</v>
+        <v>1932</v>
       </c>
       <c r="D230" t="s">
         <v>1266</v>
@@ -10839,7 +11203,7 @@
         <v>337</v>
       </c>
       <c r="C231" t="s">
-        <v>1935</v>
+        <v>1933</v>
       </c>
       <c r="D231" t="s">
         <v>1530</v>
@@ -10853,7 +11217,7 @@
         <v>338</v>
       </c>
       <c r="C232" t="s">
-        <v>1936</v>
+        <v>1934</v>
       </c>
       <c r="D232" t="s">
         <v>1531</v>
@@ -10867,7 +11231,7 @@
         <v>339</v>
       </c>
       <c r="C233" t="s">
-        <v>1937</v>
+        <v>1935</v>
       </c>
       <c r="D233" t="s">
         <v>1267</v>
@@ -10881,7 +11245,7 @@
         <v>199</v>
       </c>
       <c r="C234" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
       <c r="D234" t="s">
         <v>1232</v>
@@ -10895,7 +11259,7 @@
         <v>313</v>
       </c>
       <c r="C235" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="D235" t="s">
         <v>1234</v>
@@ -10909,7 +11273,7 @@
         <v>314</v>
       </c>
       <c r="C236" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="D236" t="s">
         <v>1268</v>
@@ -10923,7 +11287,7 @@
         <v>340</v>
       </c>
       <c r="C237" t="s">
-        <v>1939</v>
+        <v>1937</v>
       </c>
       <c r="D237" t="s">
         <v>1532</v>
@@ -10937,7 +11301,7 @@
         <v>341</v>
       </c>
       <c r="C238" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
       <c r="D238" t="s">
         <v>1269</v>
@@ -10951,7 +11315,7 @@
         <v>315</v>
       </c>
       <c r="C239" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
       <c r="D239" t="s">
         <v>1270</v>
@@ -10965,7 +11329,7 @@
         <v>342</v>
       </c>
       <c r="C240" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="D240" t="s">
         <v>1533</v>
@@ -10979,7 +11343,7 @@
         <v>343</v>
       </c>
       <c r="C241" t="s">
-        <v>1943</v>
+        <v>1941</v>
       </c>
       <c r="D241" t="s">
         <v>1534</v>
@@ -10993,7 +11357,7 @@
         <v>344</v>
       </c>
       <c r="C242" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
       <c r="D242" t="s">
         <v>1535</v>
@@ -11007,7 +11371,7 @@
         <v>345</v>
       </c>
       <c r="C243" t="s">
-        <v>1945</v>
+        <v>1943</v>
       </c>
       <c r="D243" t="s">
         <v>1536</v>
@@ -11021,7 +11385,7 @@
         <v>346</v>
       </c>
       <c r="C244" t="s">
-        <v>1946</v>
+        <v>1944</v>
       </c>
       <c r="D244" t="s">
         <v>1537</v>
@@ -11035,7 +11399,7 @@
         <v>347</v>
       </c>
       <c r="C245" t="s">
-        <v>1947</v>
+        <v>1945</v>
       </c>
       <c r="D245" t="s">
         <v>1538</v>
@@ -11049,7 +11413,7 @@
         <v>348</v>
       </c>
       <c r="C246" t="s">
-        <v>1948</v>
+        <v>1946</v>
       </c>
       <c r="D246" t="s">
         <v>1539</v>
@@ -11063,7 +11427,7 @@
         <v>349</v>
       </c>
       <c r="C247" t="s">
-        <v>1949</v>
+        <v>1947</v>
       </c>
       <c r="D247" t="s">
         <v>1540</v>
@@ -11077,7 +11441,7 @@
         <v>350</v>
       </c>
       <c r="C248" t="s">
-        <v>1950</v>
+        <v>1948</v>
       </c>
       <c r="D248" t="s">
         <v>1541</v>
@@ -11091,7 +11455,7 @@
         <v>351</v>
       </c>
       <c r="C249" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="D249" t="s">
         <v>1542</v>
@@ -11105,7 +11469,7 @@
         <v>352</v>
       </c>
       <c r="C250" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="D250" t="s">
         <v>1543</v>
@@ -11119,7 +11483,7 @@
         <v>316</v>
       </c>
       <c r="C251" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="D251" t="s">
         <v>1236</v>
@@ -11133,7 +11497,7 @@
         <v>317</v>
       </c>
       <c r="C252" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="D252" t="s">
         <v>1238</v>
@@ -11147,7 +11511,7 @@
         <v>318</v>
       </c>
       <c r="C253" t="s">
-        <v>1953</v>
+        <v>1951</v>
       </c>
       <c r="D253" t="s">
         <v>1544</v>
@@ -11161,7 +11525,7 @@
         <v>353</v>
       </c>
       <c r="C254" t="s">
-        <v>1954</v>
+        <v>1952</v>
       </c>
       <c r="D254" t="s">
         <v>1271</v>
@@ -11175,7 +11539,7 @@
         <v>354</v>
       </c>
       <c r="C255" t="s">
-        <v>1955</v>
+        <v>1953</v>
       </c>
       <c r="D255" t="s">
         <v>1545</v>
@@ -11189,7 +11553,7 @@
         <v>355</v>
       </c>
       <c r="C256" t="s">
-        <v>1956</v>
+        <v>1954</v>
       </c>
       <c r="D256" t="s">
         <v>1272</v>
@@ -11203,7 +11567,7 @@
         <v>319</v>
       </c>
       <c r="C257" t="s">
-        <v>1957</v>
+        <v>1955</v>
       </c>
       <c r="D257" t="s">
         <v>1283</v>
@@ -11217,7 +11581,7 @@
         <v>356</v>
       </c>
       <c r="C258" t="s">
-        <v>1958</v>
+        <v>1956</v>
       </c>
       <c r="D258" t="s">
         <v>1546</v>
@@ -11231,7 +11595,7 @@
         <v>357</v>
       </c>
       <c r="C259" t="s">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="D259" t="s">
         <v>1273</v>
@@ -11245,7 +11609,7 @@
         <v>358</v>
       </c>
       <c r="C260" t="s">
-        <v>1960</v>
+        <v>1958</v>
       </c>
       <c r="D260" t="s">
         <v>1547</v>
@@ -11259,7 +11623,7 @@
         <v>359</v>
       </c>
       <c r="C261" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="D261" t="s">
         <v>1548</v>
@@ -11273,7 +11637,7 @@
         <v>320</v>
       </c>
       <c r="C262" t="s">
-        <v>1962</v>
+        <v>1960</v>
       </c>
       <c r="D262" t="s">
         <v>320</v>
@@ -11287,7 +11651,7 @@
         <v>321</v>
       </c>
       <c r="C263" t="s">
-        <v>1963</v>
+        <v>1961</v>
       </c>
       <c r="D263" t="s">
         <v>1549</v>
@@ -11301,7 +11665,7 @@
         <v>360</v>
       </c>
       <c r="C264" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="D264" t="s">
         <v>1550</v>
@@ -11315,7 +11679,7 @@
         <v>361</v>
       </c>
       <c r="C265" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="D265" t="s">
         <v>1274</v>
@@ -11329,7 +11693,7 @@
         <v>322</v>
       </c>
       <c r="C266" t="s">
-        <v>1966</v>
+        <v>1964</v>
       </c>
       <c r="D266" t="s">
         <v>322</v>
@@ -11343,7 +11707,7 @@
         <v>69</v>
       </c>
       <c r="C267" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="D267" t="s">
         <v>1551</v>
@@ -11357,7 +11721,7 @@
         <v>148</v>
       </c>
       <c r="C268" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="D268" t="s">
         <v>1552</v>
@@ -11371,7 +11735,7 @@
         <v>68</v>
       </c>
       <c r="C269" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="D269" t="s">
         <v>1553</v>
@@ -11385,7 +11749,7 @@
         <v>149</v>
       </c>
       <c r="C270" t="s">
-        <v>1970</v>
+        <v>1968</v>
       </c>
       <c r="D270" t="s">
         <v>1335</v>
@@ -11399,7 +11763,7 @@
         <v>65</v>
       </c>
       <c r="C271" t="s">
-        <v>1971</v>
+        <v>1969</v>
       </c>
       <c r="D271" t="s">
         <v>1554</v>
@@ -11413,7 +11777,7 @@
         <v>67</v>
       </c>
       <c r="C272" t="s">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="D272" t="s">
         <v>1270</v>
@@ -11427,7 +11791,7 @@
         <v>66</v>
       </c>
       <c r="C273" t="s">
-        <v>1973</v>
+        <v>1971</v>
       </c>
       <c r="D273" t="s">
         <v>1275</v>
@@ -11441,7 +11805,7 @@
         <v>150</v>
       </c>
       <c r="C274" t="s">
-        <v>1974</v>
+        <v>1972</v>
       </c>
       <c r="D274" t="s">
         <v>1276</v>
@@ -11455,7 +11819,7 @@
         <v>110</v>
       </c>
       <c r="C275" t="s">
-        <v>1975</v>
+        <v>1973</v>
       </c>
       <c r="D275" t="s">
         <v>1277</v>
@@ -11469,7 +11833,7 @@
         <v>228</v>
       </c>
       <c r="C276" t="s">
-        <v>1976</v>
+        <v>1974</v>
       </c>
       <c r="D276" t="s">
         <v>1278</v>
@@ -11483,7 +11847,7 @@
         <v>230</v>
       </c>
       <c r="C277" t="s">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="D277" t="s">
         <v>1555</v>
@@ -11497,7 +11861,7 @@
         <v>229</v>
       </c>
       <c r="C278" t="s">
-        <v>1978</v>
+        <v>1976</v>
       </c>
       <c r="D278" t="s">
         <v>1279</v>
@@ -11525,7 +11889,7 @@
         <v>117</v>
       </c>
       <c r="C280" t="s">
-        <v>1979</v>
+        <v>1977</v>
       </c>
       <c r="D280" t="s">
         <v>1556</v>
@@ -11539,7 +11903,7 @@
         <v>111</v>
       </c>
       <c r="C281" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
       <c r="D281" t="s">
         <v>1261</v>
@@ -11553,7 +11917,7 @@
         <v>114</v>
       </c>
       <c r="C282" t="s">
-        <v>1980</v>
+        <v>1978</v>
       </c>
       <c r="D282" t="s">
         <v>1557</v>
@@ -11567,7 +11931,7 @@
         <v>116</v>
       </c>
       <c r="C283" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="D283" t="s">
         <v>1558</v>
@@ -11581,7 +11945,7 @@
         <v>118</v>
       </c>
       <c r="C284" t="s">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="D284" t="s">
         <v>1559</v>
@@ -11595,7 +11959,7 @@
         <v>115</v>
       </c>
       <c r="C285" t="s">
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="D285" t="s">
         <v>1280</v>
@@ -11609,7 +11973,7 @@
         <v>285</v>
       </c>
       <c r="C286" t="s">
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="D286" t="s">
         <v>1560</v>
@@ -11623,7 +11987,7 @@
         <v>739</v>
       </c>
       <c r="C287" t="s">
-        <v>1985</v>
+        <v>1983</v>
       </c>
       <c r="D287" t="s">
         <v>1561</v>
@@ -11637,7 +12001,7 @@
         <v>740</v>
       </c>
       <c r="C288" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="D288" t="s">
         <v>1562</v>
@@ -11651,7 +12015,7 @@
         <v>741</v>
       </c>
       <c r="C289" t="s">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="D289" t="s">
         <v>1563</v>
@@ -11665,7 +12029,7 @@
         <v>742</v>
       </c>
       <c r="C290" t="s">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="D290" t="s">
         <v>1564</v>
@@ -11679,7 +12043,7 @@
         <v>743</v>
       </c>
       <c r="C291" t="s">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="D291" t="s">
         <v>1565</v>
@@ -11693,7 +12057,7 @@
         <v>744</v>
       </c>
       <c r="C292" t="s">
-        <v>1990</v>
+        <v>1988</v>
       </c>
       <c r="D292" t="s">
         <v>1566</v>
@@ -11707,7 +12071,7 @@
         <v>745</v>
       </c>
       <c r="C293" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="D293" t="s">
         <v>1567</v>
@@ -11721,7 +12085,7 @@
         <v>746</v>
       </c>
       <c r="C294" t="s">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="D294" t="s">
         <v>1568</v>
@@ -11735,7 +12099,7 @@
         <v>747</v>
       </c>
       <c r="C295" t="s">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="D295" t="s">
         <v>1569</v>
@@ -11749,7 +12113,7 @@
         <v>748</v>
       </c>
       <c r="C296" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="D296" t="s">
         <v>1570</v>
@@ -11763,7 +12127,7 @@
         <v>749</v>
       </c>
       <c r="C297" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="D297" t="s">
         <v>1571</v>
@@ -11777,7 +12141,7 @@
         <v>750</v>
       </c>
       <c r="C298" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="D298" t="s">
         <v>1572</v>
@@ -11791,7 +12155,7 @@
         <v>751</v>
       </c>
       <c r="C299" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="D299" t="s">
         <v>1573</v>
@@ -11805,7 +12169,7 @@
         <v>752</v>
       </c>
       <c r="C300" t="s">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="D300" t="s">
         <v>1259</v>
@@ -11819,7 +12183,7 @@
         <v>138</v>
       </c>
       <c r="C301" t="s">
-        <v>1926</v>
+        <v>1924</v>
       </c>
       <c r="D301" t="s">
         <v>1384</v>
@@ -11833,7 +12197,7 @@
         <v>753</v>
       </c>
       <c r="C302" t="s">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="D302" t="s">
         <v>1281</v>
@@ -11847,7 +12211,7 @@
         <v>183</v>
       </c>
       <c r="C303" t="s">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="D303" t="s">
         <v>1238</v>
@@ -11861,7 +12225,7 @@
         <v>756</v>
       </c>
       <c r="C304" t="s">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="D304" t="s">
         <v>1282</v>
@@ -11875,7 +12239,7 @@
         <v>754</v>
       </c>
       <c r="C305" t="s">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="D305" t="s">
         <v>1283</v>
@@ -11889,7 +12253,7 @@
         <v>382</v>
       </c>
       <c r="C306" t="s">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="D306" t="s">
         <v>382</v>
@@ -11903,7 +12267,7 @@
         <v>383</v>
       </c>
       <c r="C307" t="s">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="D307" t="s">
         <v>383</v>
@@ -11917,7 +12281,7 @@
         <v>384</v>
       </c>
       <c r="C308" t="s">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="D308" t="s">
         <v>1210</v>
@@ -11931,7 +12295,7 @@
         <v>385</v>
       </c>
       <c r="C309" t="s">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="D309" t="s">
         <v>1284</v>
@@ -11945,7 +12309,7 @@
         <v>386</v>
       </c>
       <c r="C310" t="s">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="D310" t="s">
         <v>1285</v>
@@ -11959,7 +12323,7 @@
         <v>387</v>
       </c>
       <c r="C311" t="s">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="D311" t="s">
         <v>1211</v>
@@ -11973,7 +12337,7 @@
         <v>388</v>
       </c>
       <c r="C312" t="s">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="D312" t="s">
         <v>1574</v>
@@ -11987,7 +12351,7 @@
         <v>389</v>
       </c>
       <c r="C313" t="s">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="D313" t="s">
         <v>1575</v>
@@ -12001,7 +12365,7 @@
         <v>390</v>
       </c>
       <c r="C314" t="s">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="D314" t="s">
         <v>1286</v>
@@ -12015,7 +12379,7 @@
         <v>391</v>
       </c>
       <c r="C315" t="s">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="D315" t="s">
         <v>1287</v>
@@ -12029,7 +12393,7 @@
         <v>392</v>
       </c>
       <c r="C316" t="s">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="D316" t="s">
         <v>1288</v>
@@ -12043,7 +12407,7 @@
         <v>393</v>
       </c>
       <c r="C317" t="s">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D317" t="s">
         <v>1289</v>
@@ -12057,7 +12421,7 @@
         <v>394</v>
       </c>
       <c r="C318" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D318" t="s">
         <v>1576</v>
@@ -12071,7 +12435,7 @@
         <v>523</v>
       </c>
       <c r="C319" t="s">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D319" t="s">
         <v>1290</v>
@@ -12085,7 +12449,7 @@
         <v>395</v>
       </c>
       <c r="C320" t="s">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D320" t="s">
         <v>1291</v>
@@ -12099,7 +12463,7 @@
         <v>396</v>
       </c>
       <c r="C321" t="s">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D321" t="s">
         <v>1577</v>
@@ -12113,7 +12477,7 @@
         <v>397</v>
       </c>
       <c r="C322" t="s">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D322" t="s">
         <v>1578</v>
@@ -12124,10 +12488,10 @@
         <v>957</v>
       </c>
       <c r="B323" t="s">
-        <v>263</v>
+        <v>2379</v>
       </c>
       <c r="C323" t="s">
-        <v>1826</v>
+        <v>2380</v>
       </c>
       <c r="D323" t="s">
         <v>1486</v>
@@ -12141,7 +12505,7 @@
         <v>398</v>
       </c>
       <c r="C324" t="s">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D324" t="s">
         <v>1579</v>
@@ -12155,7 +12519,7 @@
         <v>399</v>
       </c>
       <c r="C325" t="s">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="D325" t="s">
         <v>1292</v>
@@ -12169,7 +12533,7 @@
         <v>400</v>
       </c>
       <c r="C326" t="s">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D326" t="s">
         <v>1293</v>
@@ -12183,7 +12547,7 @@
         <v>401</v>
       </c>
       <c r="C327" t="s">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="D327" t="s">
         <v>1580</v>
@@ -12197,7 +12561,7 @@
         <v>402</v>
       </c>
       <c r="C328" t="s">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D328" t="s">
         <v>1294</v>
@@ -12211,7 +12575,7 @@
         <v>403</v>
       </c>
       <c r="C329" t="s">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="D329" t="s">
         <v>1295</v>
@@ -12225,7 +12589,7 @@
         <v>404</v>
       </c>
       <c r="C330" t="s">
-        <v>2026</v>
+        <v>2024</v>
       </c>
       <c r="D330" t="s">
         <v>1581</v>
@@ -12239,7 +12603,7 @@
         <v>405</v>
       </c>
       <c r="C331" t="s">
-        <v>2027</v>
+        <v>2025</v>
       </c>
       <c r="D331" t="s">
         <v>1296</v>
@@ -12253,7 +12617,7 @@
         <v>406</v>
       </c>
       <c r="C332" t="s">
-        <v>2028</v>
+        <v>2026</v>
       </c>
       <c r="D332" t="s">
         <v>1297</v>
@@ -12267,7 +12631,7 @@
         <v>407</v>
       </c>
       <c r="C333" t="s">
-        <v>2029</v>
+        <v>2027</v>
       </c>
       <c r="D333" t="s">
         <v>1298</v>
@@ -12281,7 +12645,7 @@
         <v>524</v>
       </c>
       <c r="C334" t="s">
-        <v>2030</v>
+        <v>2028</v>
       </c>
       <c r="D334" t="s">
         <v>1299</v>
@@ -12295,7 +12659,7 @@
         <v>525</v>
       </c>
       <c r="C335" t="s">
-        <v>2031</v>
+        <v>2029</v>
       </c>
       <c r="D335" t="s">
         <v>1300</v>
@@ -12309,7 +12673,7 @@
         <v>526</v>
       </c>
       <c r="C336" t="s">
-        <v>2032</v>
+        <v>2030</v>
       </c>
       <c r="D336" t="s">
         <v>1301</v>
@@ -12323,7 +12687,7 @@
         <v>408</v>
       </c>
       <c r="C337" t="s">
-        <v>2033</v>
+        <v>2031</v>
       </c>
       <c r="D337" t="s">
         <v>1302</v>
@@ -12337,7 +12701,7 @@
         <v>409</v>
       </c>
       <c r="C338" t="s">
-        <v>2034</v>
+        <v>2032</v>
       </c>
       <c r="D338" t="s">
         <v>1582</v>
@@ -12351,7 +12715,7 @@
         <v>410</v>
       </c>
       <c r="C339" t="s">
-        <v>2035</v>
+        <v>2033</v>
       </c>
       <c r="D339" t="s">
         <v>1303</v>
@@ -12365,7 +12729,7 @@
         <v>411</v>
       </c>
       <c r="C340" t="s">
-        <v>2036</v>
+        <v>2034</v>
       </c>
       <c r="D340" t="s">
         <v>1304</v>
@@ -12407,7 +12771,7 @@
         <v>412</v>
       </c>
       <c r="C343" t="s">
-        <v>2037</v>
+        <v>2035</v>
       </c>
       <c r="D343" t="s">
         <v>1305</v>
@@ -12421,7 +12785,7 @@
         <v>527</v>
       </c>
       <c r="C344" t="s">
-        <v>2038</v>
+        <v>2036</v>
       </c>
       <c r="D344" t="s">
         <v>1306</v>
@@ -12435,7 +12799,7 @@
         <v>413</v>
       </c>
       <c r="C345" t="s">
-        <v>2039</v>
+        <v>2037</v>
       </c>
       <c r="D345" t="s">
         <v>1583</v>
@@ -12449,7 +12813,7 @@
         <v>528</v>
       </c>
       <c r="C346" t="s">
-        <v>2040</v>
+        <v>2038</v>
       </c>
       <c r="D346" t="s">
         <v>1584</v>
@@ -12477,7 +12841,7 @@
         <v>414</v>
       </c>
       <c r="C348" t="s">
-        <v>2041</v>
+        <v>2039</v>
       </c>
       <c r="D348" t="s">
         <v>1307</v>
@@ -12491,7 +12855,7 @@
         <v>415</v>
       </c>
       <c r="C349" t="s">
-        <v>2042</v>
+        <v>2040</v>
       </c>
       <c r="D349" t="s">
         <v>1308</v>
@@ -12505,7 +12869,7 @@
         <v>416</v>
       </c>
       <c r="C350" t="s">
-        <v>2043</v>
+        <v>2041</v>
       </c>
       <c r="D350" t="s">
         <v>1309</v>
@@ -12519,7 +12883,7 @@
         <v>417</v>
       </c>
       <c r="C351" t="s">
-        <v>2044</v>
+        <v>2042</v>
       </c>
       <c r="D351" t="s">
         <v>1585</v>
@@ -12533,7 +12897,7 @@
         <v>418</v>
       </c>
       <c r="C352" t="s">
-        <v>2045</v>
+        <v>2043</v>
       </c>
       <c r="D352" t="s">
         <v>1586</v>
@@ -12547,7 +12911,7 @@
         <v>529</v>
       </c>
       <c r="C353" t="s">
-        <v>2046</v>
+        <v>2044</v>
       </c>
       <c r="D353" t="s">
         <v>1587</v>
@@ -12561,7 +12925,7 @@
         <v>419</v>
       </c>
       <c r="C354" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="D354" t="s">
         <v>1588</v>
@@ -12575,7 +12939,7 @@
         <v>225</v>
       </c>
       <c r="C355" t="s">
-        <v>2048</v>
+        <v>2046</v>
       </c>
       <c r="D355" t="s">
         <v>1310</v>
@@ -12589,7 +12953,7 @@
         <v>420</v>
       </c>
       <c r="C356" t="s">
-        <v>2049</v>
+        <v>2047</v>
       </c>
       <c r="D356" t="s">
         <v>1589</v>
@@ -12603,7 +12967,7 @@
         <v>421</v>
       </c>
       <c r="C357" t="s">
-        <v>2050</v>
+        <v>2048</v>
       </c>
       <c r="D357" t="s">
         <v>1590</v>
@@ -12617,7 +12981,7 @@
         <v>422</v>
       </c>
       <c r="C358" t="s">
-        <v>2051</v>
+        <v>2049</v>
       </c>
       <c r="D358" t="s">
         <v>1311</v>
@@ -12631,7 +12995,7 @@
         <v>423</v>
       </c>
       <c r="C359" t="s">
-        <v>2052</v>
+        <v>2050</v>
       </c>
       <c r="D359" t="s">
         <v>1591</v>
@@ -12645,7 +13009,7 @@
         <v>424</v>
       </c>
       <c r="C360" t="s">
-        <v>2053</v>
+        <v>2051</v>
       </c>
       <c r="D360" t="s">
         <v>1592</v>
@@ -12659,7 +13023,7 @@
         <v>530</v>
       </c>
       <c r="C361" t="s">
-        <v>2054</v>
+        <v>2052</v>
       </c>
       <c r="D361" t="s">
         <v>1312</v>
@@ -12673,7 +13037,7 @@
         <v>425</v>
       </c>
       <c r="C362" t="s">
-        <v>2055</v>
+        <v>2053</v>
       </c>
       <c r="D362" t="s">
         <v>1313</v>
@@ -12687,7 +13051,7 @@
         <v>426</v>
       </c>
       <c r="C363" t="s">
-        <v>2056</v>
+        <v>2054</v>
       </c>
       <c r="D363" t="s">
         <v>1593</v>
@@ -12701,7 +13065,7 @@
         <v>427</v>
       </c>
       <c r="C364" t="s">
-        <v>2057</v>
+        <v>2055</v>
       </c>
       <c r="D364" t="s">
         <v>1594</v>
@@ -12715,7 +13079,7 @@
         <v>428</v>
       </c>
       <c r="C365" t="s">
-        <v>2058</v>
+        <v>2056</v>
       </c>
       <c r="D365" t="s">
         <v>1595</v>
@@ -12729,7 +13093,7 @@
         <v>185</v>
       </c>
       <c r="C366" t="s">
-        <v>2059</v>
+        <v>2057</v>
       </c>
       <c r="D366" t="s">
         <v>1395</v>
@@ -12743,7 +13107,7 @@
         <v>429</v>
       </c>
       <c r="C367" t="s">
-        <v>2060</v>
+        <v>2058</v>
       </c>
       <c r="D367" t="s">
         <v>1314</v>
@@ -12757,7 +13121,7 @@
         <v>430</v>
       </c>
       <c r="C368" t="s">
-        <v>2061</v>
+        <v>2059</v>
       </c>
       <c r="D368" t="s">
         <v>1215</v>
@@ -12771,7 +13135,7 @@
         <v>431</v>
       </c>
       <c r="C369" t="s">
-        <v>2062</v>
+        <v>2060</v>
       </c>
       <c r="D369" t="s">
         <v>1315</v>
@@ -12785,7 +13149,7 @@
         <v>432</v>
       </c>
       <c r="C370" t="s">
-        <v>2063</v>
+        <v>2061</v>
       </c>
       <c r="D370" t="s">
         <v>1316</v>
@@ -12799,7 +13163,7 @@
         <v>433</v>
       </c>
       <c r="C371" t="s">
-        <v>2064</v>
+        <v>2062</v>
       </c>
       <c r="D371" t="s">
         <v>1317</v>
@@ -12813,7 +13177,7 @@
         <v>434</v>
       </c>
       <c r="C372" t="s">
-        <v>2065</v>
+        <v>2063</v>
       </c>
       <c r="D372" t="s">
         <v>1318</v>
@@ -12827,7 +13191,7 @@
         <v>435</v>
       </c>
       <c r="C373" t="s">
-        <v>2066</v>
+        <v>2064</v>
       </c>
       <c r="D373" t="s">
         <v>1319</v>
@@ -12841,7 +13205,7 @@
         <v>436</v>
       </c>
       <c r="C374" t="s">
-        <v>2067</v>
+        <v>2065</v>
       </c>
       <c r="D374" t="s">
         <v>1320</v>
@@ -12855,7 +13219,7 @@
         <v>437</v>
       </c>
       <c r="C375" t="s">
-        <v>2068</v>
+        <v>2066</v>
       </c>
       <c r="D375" t="s">
         <v>1320</v>
@@ -12869,7 +13233,7 @@
         <v>438</v>
       </c>
       <c r="C376" t="s">
-        <v>2069</v>
+        <v>2067</v>
       </c>
       <c r="D376" t="s">
         <v>1321</v>
@@ -12883,7 +13247,7 @@
         <v>439</v>
       </c>
       <c r="C377" t="s">
-        <v>2070</v>
+        <v>2068</v>
       </c>
       <c r="D377" t="s">
         <v>1322</v>
@@ -12897,7 +13261,7 @@
         <v>440</v>
       </c>
       <c r="C378" t="s">
-        <v>2071</v>
+        <v>2069</v>
       </c>
       <c r="D378" t="s">
         <v>1323</v>
@@ -12911,7 +13275,7 @@
         <v>441</v>
       </c>
       <c r="C379" t="s">
-        <v>2072</v>
+        <v>2070</v>
       </c>
       <c r="D379" t="s">
         <v>1324</v>
@@ -12925,7 +13289,7 @@
         <v>442</v>
       </c>
       <c r="C380" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="D380" t="s">
         <v>1325</v>
@@ -12939,7 +13303,7 @@
         <v>443</v>
       </c>
       <c r="C381" t="s">
-        <v>2074</v>
+        <v>2072</v>
       </c>
       <c r="D381" t="s">
         <v>1326</v>
@@ -12953,7 +13317,7 @@
         <v>531</v>
       </c>
       <c r="C382" t="s">
-        <v>2075</v>
+        <v>2073</v>
       </c>
       <c r="D382" t="s">
         <v>1327</v>
@@ -12967,7 +13331,7 @@
         <v>444</v>
       </c>
       <c r="C383" t="s">
-        <v>2076</v>
+        <v>2074</v>
       </c>
       <c r="D383" t="s">
         <v>1328</v>
@@ -12981,7 +13345,7 @@
         <v>445</v>
       </c>
       <c r="C384" t="s">
-        <v>2077</v>
+        <v>2075</v>
       </c>
       <c r="D384" t="s">
         <v>1329</v>
@@ -12995,7 +13359,7 @@
         <v>532</v>
       </c>
       <c r="C385" t="s">
-        <v>2078</v>
+        <v>2076</v>
       </c>
       <c r="D385" t="s">
         <v>1330</v>
@@ -13009,7 +13373,7 @@
         <v>446</v>
       </c>
       <c r="C386" t="s">
-        <v>2079</v>
+        <v>2077</v>
       </c>
       <c r="D386" t="s">
         <v>1331</v>
@@ -13023,7 +13387,7 @@
         <v>447</v>
       </c>
       <c r="C387" t="s">
-        <v>2080</v>
+        <v>2078</v>
       </c>
       <c r="D387" t="s">
         <v>1332</v>
@@ -13037,7 +13401,7 @@
         <v>448</v>
       </c>
       <c r="C388" t="s">
-        <v>2081</v>
+        <v>2079</v>
       </c>
       <c r="D388" t="s">
         <v>1333</v>
@@ -13051,7 +13415,7 @@
         <v>449</v>
       </c>
       <c r="C389" t="s">
-        <v>2082</v>
+        <v>2080</v>
       </c>
       <c r="D389" t="s">
         <v>1334</v>
@@ -13065,7 +13429,7 @@
         <v>184</v>
       </c>
       <c r="C390" t="s">
-        <v>2083</v>
+        <v>2081</v>
       </c>
       <c r="D390" t="s">
         <v>1596</v>
@@ -13079,7 +13443,7 @@
         <v>450</v>
       </c>
       <c r="C391" t="s">
-        <v>2084</v>
+        <v>2082</v>
       </c>
       <c r="D391" t="s">
         <v>1597</v>
@@ -13093,7 +13457,7 @@
         <v>451</v>
       </c>
       <c r="C392" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="D392" t="s">
         <v>1598</v>
@@ -13107,7 +13471,7 @@
         <v>149</v>
       </c>
       <c r="C393" t="s">
-        <v>1970</v>
+        <v>1968</v>
       </c>
       <c r="D393" t="s">
         <v>1335</v>
@@ -13121,7 +13485,7 @@
         <v>452</v>
       </c>
       <c r="C394" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="D394" t="s">
         <v>1336</v>
@@ -13135,7 +13499,7 @@
         <v>453</v>
       </c>
       <c r="C395" t="s">
-        <v>2087</v>
+        <v>2085</v>
       </c>
       <c r="D395" t="s">
         <v>1599</v>
@@ -13149,7 +13513,7 @@
         <v>454</v>
       </c>
       <c r="C396" t="s">
-        <v>2088</v>
+        <v>2086</v>
       </c>
       <c r="D396" t="s">
         <v>1600</v>
@@ -13163,7 +13527,7 @@
         <v>455</v>
       </c>
       <c r="C397" t="s">
-        <v>2089</v>
+        <v>2087</v>
       </c>
       <c r="D397" t="s">
         <v>1601</v>
@@ -13177,7 +13541,7 @@
         <v>456</v>
       </c>
       <c r="C398" t="s">
-        <v>2090</v>
+        <v>2088</v>
       </c>
       <c r="D398" t="s">
         <v>1602</v>
@@ -13191,7 +13555,7 @@
         <v>533</v>
       </c>
       <c r="C399" t="s">
-        <v>2091</v>
+        <v>2089</v>
       </c>
       <c r="D399" t="s">
         <v>1337</v>
@@ -13205,7 +13569,7 @@
         <v>457</v>
       </c>
       <c r="C400" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="D400" t="s">
         <v>1603</v>
@@ -13219,7 +13583,7 @@
         <v>534</v>
       </c>
       <c r="C401" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="D401" t="s">
         <v>1604</v>
@@ -13233,7 +13597,7 @@
         <v>458</v>
       </c>
       <c r="C402" t="s">
-        <v>2094</v>
+        <v>2092</v>
       </c>
       <c r="D402" t="s">
         <v>1605</v>
@@ -13247,7 +13611,7 @@
         <v>459</v>
       </c>
       <c r="C403" t="s">
-        <v>2095</v>
+        <v>2093</v>
       </c>
       <c r="D403" t="s">
         <v>1338</v>
@@ -13261,7 +13625,7 @@
         <v>460</v>
       </c>
       <c r="C404" t="s">
-        <v>2096</v>
+        <v>2094</v>
       </c>
       <c r="D404" t="s">
         <v>1339</v>
@@ -13275,7 +13639,7 @@
         <v>461</v>
       </c>
       <c r="C405" t="s">
-        <v>2097</v>
+        <v>2095</v>
       </c>
       <c r="D405" t="s">
         <v>1340</v>
@@ -13289,7 +13653,7 @@
         <v>462</v>
       </c>
       <c r="C406" t="s">
-        <v>2098</v>
+        <v>2096</v>
       </c>
       <c r="D406" t="s">
         <v>462</v>
@@ -13303,7 +13667,7 @@
         <v>463</v>
       </c>
       <c r="C407" t="s">
-        <v>2099</v>
+        <v>2097</v>
       </c>
       <c r="D407" t="s">
         <v>1606</v>
@@ -13317,7 +13681,7 @@
         <v>464</v>
       </c>
       <c r="C408" t="s">
-        <v>2100</v>
+        <v>2098</v>
       </c>
       <c r="D408" t="s">
         <v>1341</v>
@@ -13331,7 +13695,7 @@
         <v>465</v>
       </c>
       <c r="C409" t="s">
-        <v>2101</v>
+        <v>2099</v>
       </c>
       <c r="D409" t="s">
         <v>1342</v>
@@ -13345,7 +13709,7 @@
         <v>466</v>
       </c>
       <c r="C410" t="s">
-        <v>2102</v>
+        <v>2100</v>
       </c>
       <c r="D410" t="s">
         <v>1343</v>
@@ -13359,7 +13723,7 @@
         <v>467</v>
       </c>
       <c r="C411" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="D411" t="s">
         <v>1607</v>
@@ -13373,7 +13737,7 @@
         <v>468</v>
       </c>
       <c r="C412" t="s">
-        <v>2104</v>
+        <v>2102</v>
       </c>
       <c r="D412" t="s">
         <v>1344</v>
@@ -13387,7 +13751,7 @@
         <v>324</v>
       </c>
       <c r="C413" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
       <c r="D413" t="s">
         <v>1227</v>
@@ -13401,7 +13765,7 @@
         <v>535</v>
       </c>
       <c r="C414" t="s">
-        <v>2105</v>
+        <v>2103</v>
       </c>
       <c r="D414" t="s">
         <v>1608</v>
@@ -13415,7 +13779,7 @@
         <v>469</v>
       </c>
       <c r="C415" t="s">
-        <v>2106</v>
+        <v>2104</v>
       </c>
       <c r="D415" t="s">
         <v>1609</v>
@@ -13429,7 +13793,7 @@
         <v>470</v>
       </c>
       <c r="C416" t="s">
-        <v>2107</v>
+        <v>2105</v>
       </c>
       <c r="D416" t="s">
         <v>1610</v>
@@ -13443,7 +13807,7 @@
         <v>471</v>
       </c>
       <c r="C417" t="s">
-        <v>2108</v>
+        <v>2106</v>
       </c>
       <c r="D417" t="s">
         <v>1611</v>
@@ -13457,7 +13821,7 @@
         <v>472</v>
       </c>
       <c r="C418" t="s">
-        <v>2109</v>
+        <v>2107</v>
       </c>
       <c r="D418" t="s">
         <v>1612</v>
@@ -13471,7 +13835,7 @@
         <v>473</v>
       </c>
       <c r="C419" t="s">
-        <v>2110</v>
+        <v>2108</v>
       </c>
       <c r="D419" t="s">
         <v>1613</v>
@@ -13485,7 +13849,7 @@
         <v>474</v>
       </c>
       <c r="C420" t="s">
-        <v>2111</v>
+        <v>2109</v>
       </c>
       <c r="D420" t="s">
         <v>1614</v>
@@ -13499,7 +13863,7 @@
         <v>536</v>
       </c>
       <c r="C421" t="s">
-        <v>2112</v>
+        <v>2110</v>
       </c>
       <c r="D421" t="s">
         <v>1345</v>
@@ -13513,7 +13877,7 @@
         <v>475</v>
       </c>
       <c r="C422" t="s">
-        <v>2113</v>
+        <v>2111</v>
       </c>
       <c r="D422" t="s">
         <v>1615</v>
@@ -13527,7 +13891,7 @@
         <v>476</v>
       </c>
       <c r="C423" t="s">
-        <v>2114</v>
+        <v>2112</v>
       </c>
       <c r="D423" t="s">
         <v>1346</v>
@@ -13541,7 +13905,7 @@
         <v>477</v>
       </c>
       <c r="C424" t="s">
-        <v>2115</v>
+        <v>2113</v>
       </c>
       <c r="D424" t="s">
         <v>1616</v>
@@ -13555,7 +13919,7 @@
         <v>537</v>
       </c>
       <c r="C425" t="s">
-        <v>2116</v>
+        <v>2114</v>
       </c>
       <c r="D425" t="s">
         <v>1347</v>
@@ -13569,7 +13933,7 @@
         <v>478</v>
       </c>
       <c r="C426" t="s">
-        <v>2117</v>
+        <v>2115</v>
       </c>
       <c r="D426" t="s">
         <v>1348</v>
@@ -13583,7 +13947,7 @@
         <v>479</v>
       </c>
       <c r="C427" t="s">
-        <v>2118</v>
+        <v>2116</v>
       </c>
       <c r="D427" t="s">
         <v>1617</v>
@@ -13597,7 +13961,7 @@
         <v>538</v>
       </c>
       <c r="C428" t="s">
-        <v>2119</v>
+        <v>2117</v>
       </c>
       <c r="D428" t="s">
         <v>1618</v>
@@ -13611,7 +13975,7 @@
         <v>480</v>
       </c>
       <c r="C429" t="s">
-        <v>2120</v>
+        <v>2118</v>
       </c>
       <c r="D429" t="s">
         <v>1619</v>
@@ -13625,7 +13989,7 @@
         <v>374</v>
       </c>
       <c r="C430" t="s">
-        <v>1865</v>
+        <v>1863</v>
       </c>
       <c r="D430" t="s">
         <v>1229</v>
@@ -13639,7 +14003,7 @@
         <v>375</v>
       </c>
       <c r="C431" t="s">
-        <v>1866</v>
+        <v>1864</v>
       </c>
       <c r="D431" t="s">
         <v>1230</v>
@@ -13653,7 +14017,7 @@
         <v>481</v>
       </c>
       <c r="C432" t="s">
-        <v>2121</v>
+        <v>2119</v>
       </c>
       <c r="D432" t="s">
         <v>1349</v>
@@ -13667,7 +14031,7 @@
         <v>482</v>
       </c>
       <c r="C433" t="s">
-        <v>2122</v>
+        <v>2120</v>
       </c>
       <c r="D433" t="s">
         <v>1350</v>
@@ -13681,7 +14045,7 @@
         <v>483</v>
       </c>
       <c r="C434" t="s">
-        <v>2123</v>
+        <v>2121</v>
       </c>
       <c r="D434" t="s">
         <v>1351</v>
@@ -13695,7 +14059,7 @@
         <v>484</v>
       </c>
       <c r="C435" t="s">
-        <v>2124</v>
+        <v>2122</v>
       </c>
       <c r="D435" t="s">
         <v>1352</v>
@@ -13709,7 +14073,7 @@
         <v>376</v>
       </c>
       <c r="C436" t="s">
-        <v>2125</v>
+        <v>2123</v>
       </c>
       <c r="D436" t="s">
         <v>1620</v>
@@ -13723,7 +14087,7 @@
         <v>377</v>
       </c>
       <c r="C437" t="s">
-        <v>2126</v>
+        <v>2124</v>
       </c>
       <c r="D437" t="s">
         <v>1621</v>
@@ -13737,7 +14101,7 @@
         <v>485</v>
       </c>
       <c r="C438" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
       <c r="D438" t="s">
         <v>1622</v>
@@ -13751,7 +14115,7 @@
         <v>486</v>
       </c>
       <c r="C439" t="s">
-        <v>2128</v>
+        <v>2126</v>
       </c>
       <c r="D439" t="s">
         <v>1353</v>
@@ -13765,7 +14129,7 @@
         <v>487</v>
       </c>
       <c r="C440" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
       <c r="D440" t="s">
         <v>1354</v>
@@ -13779,7 +14143,7 @@
         <v>488</v>
       </c>
       <c r="C441" t="s">
-        <v>2130</v>
+        <v>2128</v>
       </c>
       <c r="D441" t="s">
         <v>1623</v>
@@ -13793,7 +14157,7 @@
         <v>489</v>
       </c>
       <c r="C442" t="s">
-        <v>2131</v>
+        <v>2129</v>
       </c>
       <c r="D442" t="s">
         <v>1355</v>
@@ -13804,10 +14168,10 @@
         <v>1077</v>
       </c>
       <c r="B443" t="s">
-        <v>255</v>
+        <v>2381</v>
       </c>
       <c r="C443" t="s">
-        <v>1875</v>
+        <v>2382</v>
       </c>
       <c r="D443" t="s">
         <v>1235</v>
@@ -13821,7 +14185,7 @@
         <v>490</v>
       </c>
       <c r="C444" t="s">
-        <v>2132</v>
+        <v>2130</v>
       </c>
       <c r="D444" t="s">
         <v>1591</v>
@@ -13835,7 +14199,7 @@
         <v>491</v>
       </c>
       <c r="C445" t="s">
-        <v>2133</v>
+        <v>2131</v>
       </c>
       <c r="D445" t="s">
         <v>1356</v>
@@ -13849,7 +14213,7 @@
         <v>492</v>
       </c>
       <c r="C446" t="s">
-        <v>2134</v>
+        <v>2132</v>
       </c>
       <c r="D446" t="s">
         <v>1357</v>
@@ -13863,7 +14227,7 @@
         <v>493</v>
       </c>
       <c r="C447" t="s">
-        <v>2135</v>
+        <v>2133</v>
       </c>
       <c r="D447" t="s">
         <v>1624</v>
@@ -13877,7 +14241,7 @@
         <v>494</v>
       </c>
       <c r="C448" t="s">
-        <v>2136</v>
+        <v>2134</v>
       </c>
       <c r="D448" t="s">
         <v>1625</v>
@@ -13891,7 +14255,7 @@
         <v>539</v>
       </c>
       <c r="C449" t="s">
-        <v>2137</v>
+        <v>2135</v>
       </c>
       <c r="D449" t="s">
         <v>1626</v>
@@ -13905,7 +14269,7 @@
         <v>495</v>
       </c>
       <c r="C450" t="s">
-        <v>2138</v>
+        <v>2136</v>
       </c>
       <c r="D450" t="s">
         <v>495</v>
@@ -13919,7 +14283,7 @@
         <v>496</v>
       </c>
       <c r="C451" t="s">
-        <v>2139</v>
+        <v>2137</v>
       </c>
       <c r="D451" t="s">
         <v>496</v>
@@ -13933,7 +14297,7 @@
         <v>497</v>
       </c>
       <c r="C452" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
       <c r="D452" t="s">
         <v>1627</v>
@@ -13947,7 +14311,7 @@
         <v>498</v>
       </c>
       <c r="C453" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="D453" t="s">
         <v>1628</v>
@@ -13961,7 +14325,7 @@
         <v>499</v>
       </c>
       <c r="C454" t="s">
-        <v>2142</v>
+        <v>2140</v>
       </c>
       <c r="D454" t="s">
         <v>1629</v>
@@ -13975,7 +14339,7 @@
         <v>500</v>
       </c>
       <c r="C455" t="s">
-        <v>2143</v>
+        <v>2141</v>
       </c>
       <c r="D455" t="s">
         <v>1358</v>
@@ -13989,7 +14353,7 @@
         <v>540</v>
       </c>
       <c r="C456" t="s">
-        <v>2144</v>
+        <v>2142</v>
       </c>
       <c r="D456" t="s">
         <v>1630</v>
@@ -14003,7 +14367,7 @@
         <v>541</v>
       </c>
       <c r="C457" t="s">
-        <v>2145</v>
+        <v>2143</v>
       </c>
       <c r="D457" t="s">
         <v>1359</v>
@@ -14017,7 +14381,7 @@
         <v>542</v>
       </c>
       <c r="C458" t="s">
-        <v>2146</v>
+        <v>2144</v>
       </c>
       <c r="D458" t="s">
         <v>1631</v>
@@ -14031,7 +14395,7 @@
         <v>501</v>
       </c>
       <c r="C459" t="s">
-        <v>2147</v>
+        <v>2145</v>
       </c>
       <c r="D459" t="s">
         <v>1632</v>
@@ -14045,7 +14409,7 @@
         <v>502</v>
       </c>
       <c r="C460" t="s">
-        <v>2148</v>
+        <v>2146</v>
       </c>
       <c r="D460" t="s">
         <v>1633</v>
@@ -14059,7 +14423,7 @@
         <v>503</v>
       </c>
       <c r="C461" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
       <c r="D461" t="s">
         <v>1360</v>
@@ -14073,7 +14437,7 @@
         <v>504</v>
       </c>
       <c r="C462" t="s">
-        <v>2150</v>
+        <v>2148</v>
       </c>
       <c r="D462" t="s">
         <v>1361</v>
@@ -14087,7 +14451,7 @@
         <v>543</v>
       </c>
       <c r="C463" t="s">
-        <v>2151</v>
+        <v>2149</v>
       </c>
       <c r="D463" t="s">
         <v>1634</v>
@@ -14101,7 +14465,7 @@
         <v>380</v>
       </c>
       <c r="C464" t="s">
-        <v>1883</v>
+        <v>1881</v>
       </c>
       <c r="D464" t="s">
         <v>1509</v>
@@ -14115,7 +14479,7 @@
         <v>505</v>
       </c>
       <c r="C465" t="s">
-        <v>2152</v>
+        <v>2150</v>
       </c>
       <c r="D465" t="s">
         <v>1635</v>
@@ -14129,7 +14493,7 @@
         <v>506</v>
       </c>
       <c r="C466" t="s">
-        <v>2153</v>
+        <v>2151</v>
       </c>
       <c r="D466" t="s">
         <v>1636</v>
@@ -14143,7 +14507,7 @@
         <v>507</v>
       </c>
       <c r="C467" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="D467" t="s">
         <v>1637</v>
@@ -14157,7 +14521,7 @@
         <v>508</v>
       </c>
       <c r="C468" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="D468" t="s">
         <v>1638</v>
@@ -14171,7 +14535,7 @@
         <v>509</v>
       </c>
       <c r="C469" t="s">
-        <v>2156</v>
+        <v>2154</v>
       </c>
       <c r="D469" t="s">
         <v>1639</v>
@@ -14185,7 +14549,7 @@
         <v>510</v>
       </c>
       <c r="C470" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="D470" t="s">
         <v>1234</v>
@@ -14199,7 +14563,7 @@
         <v>511</v>
       </c>
       <c r="C471" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
       <c r="D471" t="s">
         <v>1640</v>
@@ -14213,7 +14577,7 @@
         <v>544</v>
       </c>
       <c r="C472" t="s">
-        <v>2159</v>
+        <v>2157</v>
       </c>
       <c r="D472" t="s">
         <v>1362</v>
@@ -14227,7 +14591,7 @@
         <v>512</v>
       </c>
       <c r="C473" t="s">
-        <v>2160</v>
+        <v>2158</v>
       </c>
       <c r="D473" t="s">
         <v>1641</v>
@@ -14238,10 +14602,10 @@
         <v>1108</v>
       </c>
       <c r="B474" t="s">
-        <v>222</v>
+        <v>2383</v>
       </c>
       <c r="C474" t="s">
-        <v>2161</v>
+        <v>2384</v>
       </c>
       <c r="D474" t="s">
         <v>1363</v>
@@ -14255,7 +14619,7 @@
         <v>545</v>
       </c>
       <c r="C475" t="s">
-        <v>2162</v>
+        <v>2160</v>
       </c>
       <c r="D475" t="s">
         <v>1642</v>
@@ -14269,7 +14633,7 @@
         <v>513</v>
       </c>
       <c r="C476" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
       <c r="D476" t="s">
         <v>1643</v>
@@ -14283,7 +14647,7 @@
         <v>514</v>
       </c>
       <c r="C477" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="D477" t="s">
         <v>1364</v>
@@ -14297,7 +14661,7 @@
         <v>515</v>
       </c>
       <c r="C478" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
       <c r="D478" t="s">
         <v>1644</v>
@@ -14311,7 +14675,7 @@
         <v>516</v>
       </c>
       <c r="C479" t="s">
-        <v>2166</v>
+        <v>2164</v>
       </c>
       <c r="D479" t="s">
         <v>1512</v>
@@ -14325,7 +14689,7 @@
         <v>517</v>
       </c>
       <c r="C480" t="s">
-        <v>2167</v>
+        <v>2165</v>
       </c>
       <c r="D480" t="s">
         <v>1365</v>
@@ -14339,7 +14703,7 @@
         <v>518</v>
       </c>
       <c r="C481" t="s">
-        <v>2168</v>
+        <v>2166</v>
       </c>
       <c r="D481" t="s">
         <v>1366</v>
@@ -14353,7 +14717,7 @@
         <v>519</v>
       </c>
       <c r="C482" t="s">
-        <v>2169</v>
+        <v>2167</v>
       </c>
       <c r="D482" t="s">
         <v>1645</v>
@@ -14367,7 +14731,7 @@
         <v>520</v>
       </c>
       <c r="C483" t="s">
-        <v>2170</v>
+        <v>2168</v>
       </c>
       <c r="D483" t="s">
         <v>1646</v>
@@ -14381,7 +14745,7 @@
         <v>521</v>
       </c>
       <c r="C484" t="s">
-        <v>2171</v>
+        <v>2169</v>
       </c>
       <c r="D484" t="s">
         <v>1647</v>
@@ -14395,7 +14759,7 @@
         <v>546</v>
       </c>
       <c r="C485" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
       <c r="D485" t="s">
         <v>1367</v>
@@ -14409,7 +14773,7 @@
         <v>522</v>
       </c>
       <c r="C486" t="s">
-        <v>2173</v>
+        <v>2171</v>
       </c>
       <c r="D486" t="s">
         <v>1368</v>
@@ -14423,7 +14787,7 @@
         <v>37</v>
       </c>
       <c r="C487" t="s">
-        <v>2174</v>
+        <v>2172</v>
       </c>
       <c r="D487" t="s">
         <v>1250</v>
@@ -14437,7 +14801,7 @@
         <v>36</v>
       </c>
       <c r="C488" t="s">
-        <v>2175</v>
+        <v>2173</v>
       </c>
       <c r="D488" t="s">
         <v>1648</v>
@@ -14451,7 +14815,7 @@
         <v>24</v>
       </c>
       <c r="C489" t="s">
-        <v>2176</v>
+        <v>2174</v>
       </c>
       <c r="D489" t="s">
         <v>1369</v>
@@ -14465,7 +14829,7 @@
         <v>26</v>
       </c>
       <c r="C490" t="s">
-        <v>2177</v>
+        <v>2175</v>
       </c>
       <c r="D490" t="s">
         <v>1370</v>
@@ -14479,7 +14843,7 @@
         <v>18</v>
       </c>
       <c r="C491" t="s">
-        <v>2178</v>
+        <v>2176</v>
       </c>
       <c r="D491" t="s">
         <v>1371</v>
@@ -14493,7 +14857,7 @@
         <v>20</v>
       </c>
       <c r="C492" t="s">
-        <v>2179</v>
+        <v>2177</v>
       </c>
       <c r="D492" t="s">
         <v>1372</v>
@@ -14507,7 +14871,7 @@
         <v>125</v>
       </c>
       <c r="C493" t="s">
-        <v>2180</v>
+        <v>2178</v>
       </c>
       <c r="D493" t="s">
         <v>1373</v>
@@ -14521,7 +14885,7 @@
         <v>127</v>
       </c>
       <c r="C494" t="s">
-        <v>2181</v>
+        <v>2179</v>
       </c>
       <c r="D494" t="s">
         <v>1649</v>
@@ -14535,7 +14899,7 @@
         <v>126</v>
       </c>
       <c r="C495" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="D495" t="s">
         <v>1374</v>
@@ -14549,7 +14913,7 @@
         <v>124</v>
       </c>
       <c r="C496" t="s">
-        <v>2183</v>
+        <v>2181</v>
       </c>
       <c r="D496" t="s">
         <v>124</v>
@@ -14563,7 +14927,7 @@
         <v>121</v>
       </c>
       <c r="C497" t="s">
-        <v>2184</v>
+        <v>2182</v>
       </c>
       <c r="D497" t="s">
         <v>1375</v>
@@ -14577,7 +14941,7 @@
         <v>122</v>
       </c>
       <c r="C498" t="s">
-        <v>2185</v>
+        <v>2183</v>
       </c>
       <c r="D498" t="s">
         <v>1376</v>
@@ -14591,7 +14955,7 @@
         <v>131</v>
       </c>
       <c r="C499" t="s">
-        <v>2186</v>
+        <v>2184</v>
       </c>
       <c r="D499" t="s">
         <v>1650</v>
@@ -14605,7 +14969,7 @@
         <v>119</v>
       </c>
       <c r="C500" t="s">
-        <v>2187</v>
+        <v>2185</v>
       </c>
       <c r="D500" t="s">
         <v>1377</v>
@@ -14619,7 +14983,7 @@
         <v>120</v>
       </c>
       <c r="C501" t="s">
-        <v>2188</v>
+        <v>2186</v>
       </c>
       <c r="D501" t="s">
         <v>1651</v>
@@ -14633,7 +14997,7 @@
         <v>130</v>
       </c>
       <c r="C502" t="s">
-        <v>2189</v>
+        <v>2187</v>
       </c>
       <c r="D502" t="s">
         <v>1378</v>
@@ -14647,7 +15011,7 @@
         <v>129</v>
       </c>
       <c r="C503" t="s">
-        <v>2190</v>
+        <v>2188</v>
       </c>
       <c r="D503" t="s">
         <v>1379</v>
@@ -14661,7 +15025,7 @@
         <v>123</v>
       </c>
       <c r="C504" t="s">
-        <v>2191</v>
+        <v>2189</v>
       </c>
       <c r="D504" t="s">
         <v>1652</v>
@@ -14675,7 +15039,7 @@
         <v>128</v>
       </c>
       <c r="C505" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="D505" t="s">
         <v>1653</v>
@@ -14689,7 +15053,7 @@
         <v>193</v>
       </c>
       <c r="C506" t="s">
-        <v>2193</v>
+        <v>2191</v>
       </c>
       <c r="D506" t="s">
         <v>1654</v>
@@ -14703,7 +15067,7 @@
         <v>194</v>
       </c>
       <c r="C507" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
       <c r="D507" t="s">
         <v>1655</v>
@@ -14717,7 +15081,7 @@
         <v>195</v>
       </c>
       <c r="C508" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="D508" t="s">
         <v>1629</v>
@@ -14731,7 +15095,7 @@
         <v>134</v>
       </c>
       <c r="C509" t="s">
-        <v>2196</v>
+        <v>2194</v>
       </c>
       <c r="D509" t="s">
         <v>1656</v>
@@ -14745,7 +15109,7 @@
         <v>135</v>
       </c>
       <c r="C510" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
       <c r="D510" t="s">
         <v>1380</v>
@@ -14759,7 +15123,7 @@
         <v>132</v>
       </c>
       <c r="C511" t="s">
-        <v>2198</v>
+        <v>2196</v>
       </c>
       <c r="D511" t="s">
         <v>1657</v>
@@ -14773,7 +15137,7 @@
         <v>133</v>
       </c>
       <c r="C512" t="s">
-        <v>2199</v>
+        <v>2197</v>
       </c>
       <c r="D512" t="s">
         <v>1658</v>
@@ -14787,7 +15151,7 @@
         <v>136</v>
       </c>
       <c r="C513" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
       <c r="D513" t="s">
         <v>1659</v>
@@ -14801,7 +15165,7 @@
         <v>132</v>
       </c>
       <c r="C514" t="s">
-        <v>2198</v>
+        <v>2196</v>
       </c>
       <c r="D514" t="s">
         <v>1657</v>
@@ -14815,7 +15179,7 @@
         <v>137</v>
       </c>
       <c r="C515" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
       <c r="D515" t="s">
         <v>1660</v>
@@ -14829,7 +15193,7 @@
         <v>151</v>
       </c>
       <c r="C516" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
       <c r="D516" t="s">
         <v>1661</v>
@@ -14843,7 +15207,7 @@
         <v>152</v>
       </c>
       <c r="C517" t="s">
-        <v>2203</v>
+        <v>2201</v>
       </c>
       <c r="D517" t="s">
         <v>1381</v>
@@ -14871,7 +15235,7 @@
         <v>155</v>
       </c>
       <c r="C519" t="s">
-        <v>2204</v>
+        <v>2202</v>
       </c>
       <c r="D519" t="s">
         <v>1382</v>
@@ -14885,7 +15249,7 @@
         <v>139</v>
       </c>
       <c r="C520" t="s">
-        <v>2205</v>
+        <v>2203</v>
       </c>
       <c r="D520" t="s">
         <v>1662</v>
@@ -14899,7 +15263,7 @@
         <v>142</v>
       </c>
       <c r="C521" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
       <c r="D521" t="s">
         <v>1329</v>
@@ -14913,7 +15277,7 @@
         <v>140</v>
       </c>
       <c r="C522" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
       <c r="D522" t="s">
         <v>1383</v>
@@ -14927,7 +15291,7 @@
         <v>138</v>
       </c>
       <c r="C523" t="s">
-        <v>1926</v>
+        <v>1924</v>
       </c>
       <c r="D523" t="s">
         <v>1384</v>
@@ -14941,7 +15305,7 @@
         <v>144</v>
       </c>
       <c r="C524" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
       <c r="D524" t="s">
         <v>1385</v>
@@ -14955,7 +15319,7 @@
         <v>154</v>
       </c>
       <c r="C525" t="s">
-        <v>2209</v>
+        <v>2207</v>
       </c>
       <c r="D525" t="s">
         <v>1377</v>
@@ -14969,7 +15333,7 @@
         <v>287</v>
       </c>
       <c r="C526" t="s">
-        <v>2210</v>
+        <v>2208</v>
       </c>
       <c r="D526" t="s">
         <v>1663</v>
@@ -14983,7 +15347,7 @@
         <v>182</v>
       </c>
       <c r="C527" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="D527" t="s">
         <v>1386</v>
@@ -14997,7 +15361,7 @@
         <v>145</v>
       </c>
       <c r="C528" t="s">
-        <v>2212</v>
+        <v>2210</v>
       </c>
       <c r="D528" t="s">
         <v>1664</v>
@@ -15011,7 +15375,7 @@
         <v>146</v>
       </c>
       <c r="C529" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
       <c r="D529" t="s">
         <v>1665</v>
@@ -15025,7 +15389,7 @@
         <v>181</v>
       </c>
       <c r="C530" t="s">
-        <v>2214</v>
+        <v>2212</v>
       </c>
       <c r="D530" t="s">
         <v>1666</v>
@@ -15039,7 +15403,7 @@
         <v>141</v>
       </c>
       <c r="C531" t="s">
-        <v>1885</v>
+        <v>1883</v>
       </c>
       <c r="D531" t="s">
         <v>1511</v>
@@ -15053,7 +15417,7 @@
         <v>147</v>
       </c>
       <c r="C532" t="s">
-        <v>2215</v>
+        <v>2213</v>
       </c>
       <c r="D532" t="s">
         <v>1388</v>
@@ -15067,7 +15431,7 @@
         <v>143</v>
       </c>
       <c r="C533" t="s">
-        <v>2216</v>
+        <v>2214</v>
       </c>
       <c r="D533" t="s">
         <v>1389</v>
@@ -15081,7 +15445,7 @@
         <v>286</v>
       </c>
       <c r="C534" t="s">
-        <v>2217</v>
+        <v>2215</v>
       </c>
       <c r="D534" t="s">
         <v>1667</v>
@@ -15095,7 +15459,7 @@
         <v>153</v>
       </c>
       <c r="C535" t="s">
-        <v>2218</v>
+        <v>2216</v>
       </c>
       <c r="D535" t="s">
         <v>1277</v>
@@ -15109,7 +15473,7 @@
         <v>25</v>
       </c>
       <c r="C536" t="s">
-        <v>2219</v>
+        <v>2217</v>
       </c>
       <c r="D536" t="s">
         <v>1668</v>
@@ -15123,7 +15487,7 @@
         <v>24</v>
       </c>
       <c r="C537" t="s">
-        <v>2176</v>
+        <v>2174</v>
       </c>
       <c r="D537" t="s">
         <v>1369</v>
@@ -15137,7 +15501,7 @@
         <v>26</v>
       </c>
       <c r="C538" t="s">
-        <v>2177</v>
+        <v>2175</v>
       </c>
       <c r="D538" t="s">
         <v>1370</v>
@@ -15151,7 +15515,7 @@
         <v>22</v>
       </c>
       <c r="C539" t="s">
-        <v>2220</v>
+        <v>2218</v>
       </c>
       <c r="D539" t="s">
         <v>1390</v>
@@ -15165,7 +15529,7 @@
         <v>21</v>
       </c>
       <c r="C540" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="D540" t="s">
         <v>1391</v>
@@ -15179,7 +15543,7 @@
         <v>23</v>
       </c>
       <c r="C541" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
       <c r="D541" t="s">
         <v>1392</v>
@@ -15193,7 +15557,7 @@
         <v>19</v>
       </c>
       <c r="C542" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
       <c r="D542" t="s">
         <v>1669</v>
@@ -15207,7 +15571,7 @@
         <v>18</v>
       </c>
       <c r="C543" t="s">
-        <v>2178</v>
+        <v>2176</v>
       </c>
       <c r="D543" t="s">
         <v>1371</v>
@@ -15221,7 +15585,7 @@
         <v>20</v>
       </c>
       <c r="C544" t="s">
-        <v>2179</v>
+        <v>2177</v>
       </c>
       <c r="D544" t="s">
         <v>1372</v>
@@ -15235,7 +15599,7 @@
         <v>288</v>
       </c>
       <c r="C545" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
       <c r="D545" t="s">
         <v>1670</v>
@@ -15249,7 +15613,7 @@
         <v>190</v>
       </c>
       <c r="C546" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
       <c r="D546" t="s">
         <v>1671</v>
@@ -15263,7 +15627,7 @@
         <v>189</v>
       </c>
       <c r="C547" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
       <c r="D547" t="s">
         <v>1672</v>
@@ -15277,7 +15641,7 @@
         <v>186</v>
       </c>
       <c r="C548" t="s">
-        <v>2227</v>
+        <v>2225</v>
       </c>
       <c r="D548" t="s">
         <v>1393</v>
@@ -15291,7 +15655,7 @@
         <v>111</v>
       </c>
       <c r="C549" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
       <c r="D549" t="s">
         <v>1261</v>
@@ -15305,7 +15669,7 @@
         <v>187</v>
       </c>
       <c r="C550" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
       <c r="D550" t="s">
         <v>1673</v>
@@ -15319,7 +15683,7 @@
         <v>146</v>
       </c>
       <c r="C551" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
       <c r="D551" t="s">
         <v>1665</v>
@@ -15333,7 +15697,7 @@
         <v>289</v>
       </c>
       <c r="C552" t="s">
-        <v>2229</v>
+        <v>2227</v>
       </c>
       <c r="D552" t="s">
         <v>1674</v>
@@ -15347,7 +15711,7 @@
         <v>181</v>
       </c>
       <c r="C553" t="s">
-        <v>2214</v>
+        <v>2212</v>
       </c>
       <c r="D553" t="s">
         <v>1666</v>
@@ -15361,7 +15725,7 @@
         <v>188</v>
       </c>
       <c r="C554" t="s">
-        <v>2230</v>
+        <v>2228</v>
       </c>
       <c r="D554" t="s">
         <v>1394</v>
@@ -15375,7 +15739,7 @@
         <v>153</v>
       </c>
       <c r="C555" t="s">
-        <v>2218</v>
+        <v>2216</v>
       </c>
       <c r="D555" t="s">
         <v>1277</v>
@@ -15389,7 +15753,7 @@
         <v>191</v>
       </c>
       <c r="C556" t="s">
-        <v>2231</v>
+        <v>2229</v>
       </c>
       <c r="D556" t="s">
         <v>1675</v>
@@ -15403,7 +15767,7 @@
         <v>291</v>
       </c>
       <c r="C557" t="s">
-        <v>2232</v>
+        <v>2230</v>
       </c>
       <c r="D557" t="s">
         <v>1300</v>
@@ -15417,7 +15781,7 @@
         <v>198</v>
       </c>
       <c r="C558" t="s">
-        <v>1911</v>
+        <v>1909</v>
       </c>
       <c r="D558" t="s">
         <v>1250</v>
@@ -15431,7 +15795,7 @@
         <v>192</v>
       </c>
       <c r="C559" t="s">
-        <v>2233</v>
+        <v>2231</v>
       </c>
       <c r="D559" t="s">
         <v>1387</v>
@@ -15445,7 +15809,7 @@
         <v>199</v>
       </c>
       <c r="C560" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
       <c r="D560" t="s">
         <v>1232</v>
@@ -15459,7 +15823,7 @@
         <v>290</v>
       </c>
       <c r="C561" t="s">
-        <v>2234</v>
+        <v>2232</v>
       </c>
       <c r="D561" t="s">
         <v>1676</v>
@@ -15473,7 +15837,7 @@
         <v>185</v>
       </c>
       <c r="C562" t="s">
-        <v>2059</v>
+        <v>2057</v>
       </c>
       <c r="D562" t="s">
         <v>1395</v>
@@ -15487,7 +15851,7 @@
         <v>184</v>
       </c>
       <c r="C563" t="s">
-        <v>2083</v>
+        <v>2081</v>
       </c>
       <c r="D563" t="s">
         <v>1596</v>
@@ -15501,7 +15865,7 @@
         <v>183</v>
       </c>
       <c r="C564" t="s">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="D564" t="s">
         <v>1238</v>
@@ -15515,7 +15879,7 @@
         <v>198</v>
       </c>
       <c r="C565" t="s">
-        <v>1911</v>
+        <v>1909</v>
       </c>
       <c r="D565" t="s">
         <v>1488</v>
@@ -15529,7 +15893,7 @@
         <v>213</v>
       </c>
       <c r="C566" t="s">
-        <v>2235</v>
+        <v>2233</v>
       </c>
       <c r="D566" t="s">
         <v>1396</v>
@@ -15543,7 +15907,7 @@
         <v>202</v>
       </c>
       <c r="C567" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
       <c r="D567" t="s">
         <v>1677</v>
@@ -15557,7 +15921,7 @@
         <v>138</v>
       </c>
       <c r="C568" t="s">
-        <v>1926</v>
+        <v>1924</v>
       </c>
       <c r="D568" t="s">
         <v>1384</v>
@@ -15571,7 +15935,7 @@
         <v>208</v>
       </c>
       <c r="C569" t="s">
-        <v>2237</v>
+        <v>2235</v>
       </c>
       <c r="D569" t="s">
         <v>1678</v>
@@ -15585,7 +15949,7 @@
         <v>210</v>
       </c>
       <c r="C570" t="s">
-        <v>2238</v>
+        <v>2236</v>
       </c>
       <c r="D570" t="s">
         <v>1679</v>
@@ -15599,7 +15963,7 @@
         <v>207</v>
       </c>
       <c r="C571" t="s">
-        <v>2239</v>
+        <v>2237</v>
       </c>
       <c r="D571" t="s">
         <v>1680</v>
@@ -15613,7 +15977,7 @@
         <v>111</v>
       </c>
       <c r="C572" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
       <c r="D572" t="s">
         <v>1681</v>
@@ -15627,7 +15991,7 @@
         <v>206</v>
       </c>
       <c r="C573" t="s">
-        <v>2240</v>
+        <v>2238</v>
       </c>
       <c r="D573" t="s">
         <v>1397</v>
@@ -15641,7 +16005,7 @@
         <v>204</v>
       </c>
       <c r="C574" t="s">
-        <v>2241</v>
+        <v>2239</v>
       </c>
       <c r="D574" t="s">
         <v>1682</v>
@@ -15655,7 +16019,7 @@
         <v>201</v>
       </c>
       <c r="C575" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
       <c r="D575" t="s">
         <v>1398</v>
@@ -15669,7 +16033,7 @@
         <v>287</v>
       </c>
       <c r="C576" t="s">
-        <v>2210</v>
+        <v>2208</v>
       </c>
       <c r="D576" t="s">
         <v>1663</v>
@@ -15683,7 +16047,7 @@
         <v>205</v>
       </c>
       <c r="C577" t="s">
-        <v>2243</v>
+        <v>2241</v>
       </c>
       <c r="D577" t="s">
         <v>1399</v>
@@ -15697,7 +16061,7 @@
         <v>209</v>
       </c>
       <c r="C578" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
       <c r="D578" t="s">
         <v>1683</v>
@@ -15711,7 +16075,7 @@
         <v>203</v>
       </c>
       <c r="C579" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
       <c r="D579" t="s">
         <v>1684</v>
@@ -15725,7 +16089,7 @@
         <v>200</v>
       </c>
       <c r="C580" t="s">
-        <v>2246</v>
+        <v>2244</v>
       </c>
       <c r="D580" t="s">
         <v>1400</v>
@@ -15739,7 +16103,7 @@
         <v>211</v>
       </c>
       <c r="C581" t="s">
-        <v>2247</v>
+        <v>2245</v>
       </c>
       <c r="D581" t="s">
         <v>1401</v>
@@ -15753,7 +16117,7 @@
         <v>214</v>
       </c>
       <c r="C582" t="s">
-        <v>2248</v>
+        <v>2246</v>
       </c>
       <c r="D582" t="s">
         <v>1402</v>
@@ -15767,7 +16131,7 @@
         <v>212</v>
       </c>
       <c r="C583" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
       <c r="D583" t="s">
         <v>1685</v>
@@ -15781,7 +16145,7 @@
         <v>240</v>
       </c>
       <c r="C584" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
       <c r="D584" t="s">
         <v>1403</v>
@@ -15795,7 +16159,7 @@
         <v>239</v>
       </c>
       <c r="C585" t="s">
-        <v>2251</v>
+        <v>2249</v>
       </c>
       <c r="D585" t="s">
         <v>1686</v>
@@ -15809,7 +16173,7 @@
         <v>238</v>
       </c>
       <c r="C586" t="s">
-        <v>2252</v>
+        <v>2250</v>
       </c>
       <c r="D586" t="s">
         <v>1687</v>
@@ -15823,7 +16187,7 @@
         <v>237</v>
       </c>
       <c r="C587" t="s">
-        <v>2253</v>
+        <v>2251</v>
       </c>
       <c r="D587" t="s">
         <v>1688</v>
@@ -15837,7 +16201,7 @@
         <v>232</v>
       </c>
       <c r="C588" t="s">
-        <v>2254</v>
+        <v>2252</v>
       </c>
       <c r="D588" t="s">
         <v>1689</v>
@@ -15851,7 +16215,7 @@
         <v>236</v>
       </c>
       <c r="C589" t="s">
-        <v>2255</v>
+        <v>2253</v>
       </c>
       <c r="D589" t="s">
         <v>1690</v>
@@ -15865,7 +16229,7 @@
         <v>235</v>
       </c>
       <c r="C590" t="s">
-        <v>2256</v>
+        <v>2254</v>
       </c>
       <c r="D590" t="s">
         <v>1691</v>
@@ -15879,7 +16243,7 @@
         <v>234</v>
       </c>
       <c r="C591" t="s">
-        <v>2257</v>
+        <v>2255</v>
       </c>
       <c r="D591" t="s">
         <v>1692</v>
@@ -15893,7 +16257,7 @@
         <v>233</v>
       </c>
       <c r="C592" t="s">
-        <v>2258</v>
+        <v>2256</v>
       </c>
       <c r="D592" t="s">
         <v>1693</v>
@@ -15907,7 +16271,7 @@
         <v>215</v>
       </c>
       <c r="C593" t="s">
-        <v>2259</v>
+        <v>2257</v>
       </c>
       <c r="D593" t="s">
         <v>1694</v>
@@ -15921,7 +16285,7 @@
         <v>216</v>
       </c>
       <c r="C594" t="s">
-        <v>2260</v>
+        <v>2258</v>
       </c>
       <c r="D594" t="s">
         <v>1404</v>
@@ -15935,7 +16299,7 @@
         <v>217</v>
       </c>
       <c r="C595" t="s">
-        <v>2261</v>
+        <v>2259</v>
       </c>
       <c r="D595" t="s">
         <v>1695</v>
@@ -15949,7 +16313,7 @@
         <v>292</v>
       </c>
       <c r="C596" t="s">
-        <v>2262</v>
+        <v>2260</v>
       </c>
       <c r="D596" t="s">
         <v>1696</v>
@@ -15963,7 +16327,7 @@
         <v>219</v>
       </c>
       <c r="C597" t="s">
-        <v>2263</v>
+        <v>2261</v>
       </c>
       <c r="D597" t="s">
         <v>1405</v>
@@ -15977,7 +16341,7 @@
         <v>218</v>
       </c>
       <c r="C598" t="s">
-        <v>2264</v>
+        <v>2262</v>
       </c>
       <c r="D598" t="s">
         <v>218</v>
@@ -15991,7 +16355,7 @@
         <v>220</v>
       </c>
       <c r="C599" t="s">
-        <v>1872</v>
+        <v>1870</v>
       </c>
       <c r="D599" t="s">
         <v>1503</v>
@@ -16005,7 +16369,7 @@
         <v>113</v>
       </c>
       <c r="C600" t="s">
-        <v>2265</v>
+        <v>2263</v>
       </c>
       <c r="D600" t="s">
         <v>1697</v>
@@ -16033,7 +16397,7 @@
         <v>112</v>
       </c>
       <c r="C602" t="s">
-        <v>2266</v>
+        <v>2264</v>
       </c>
       <c r="D602" t="s">
         <v>1698</v>
@@ -16047,7 +16411,7 @@
         <v>221</v>
       </c>
       <c r="C603" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
       <c r="D603" t="s">
         <v>1406</v>
@@ -16061,7 +16425,7 @@
         <v>222</v>
       </c>
       <c r="C604" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
       <c r="D604" t="s">
         <v>1363</v>
@@ -16075,7 +16439,7 @@
         <v>293</v>
       </c>
       <c r="C605" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
       <c r="D605" t="s">
         <v>1407</v>
@@ -16089,7 +16453,7 @@
         <v>2</v>
       </c>
       <c r="C606" t="s">
-        <v>2269</v>
+        <v>2267</v>
       </c>
       <c r="D606" t="s">
         <v>1699</v>
@@ -16103,7 +16467,7 @@
         <v>1</v>
       </c>
       <c r="C607" t="s">
-        <v>2270</v>
+        <v>2268</v>
       </c>
       <c r="D607" t="s">
         <v>1700</v>
@@ -16117,7 +16481,7 @@
         <v>225</v>
       </c>
       <c r="C608" t="s">
-        <v>2048</v>
+        <v>2046</v>
       </c>
       <c r="D608" t="s">
         <v>1701</v>
@@ -16131,7 +16495,7 @@
         <v>294</v>
       </c>
       <c r="C609" t="s">
-        <v>2271</v>
+        <v>2269</v>
       </c>
       <c r="D609" t="s">
         <v>1702</v>
@@ -16145,7 +16509,7 @@
         <v>223</v>
       </c>
       <c r="C610" t="s">
-        <v>2272</v>
+        <v>2270</v>
       </c>
       <c r="D610" t="s">
         <v>1703</v>
@@ -16159,7 +16523,7 @@
         <v>224</v>
       </c>
       <c r="C611" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="D611" t="s">
         <v>1704</v>
@@ -16173,7 +16537,7 @@
         <v>226</v>
       </c>
       <c r="C612" t="s">
-        <v>2274</v>
+        <v>2272</v>
       </c>
       <c r="D612" t="s">
         <v>1408</v>
@@ -16187,7 +16551,7 @@
         <v>247</v>
       </c>
       <c r="C613" t="s">
-        <v>2275</v>
+        <v>2273</v>
       </c>
       <c r="D613" t="s">
         <v>1409</v>
@@ -16201,7 +16565,7 @@
         <v>241</v>
       </c>
       <c r="C614" t="s">
-        <v>2276</v>
+        <v>2274</v>
       </c>
       <c r="D614" t="s">
         <v>1705</v>
@@ -16215,7 +16579,7 @@
         <v>246</v>
       </c>
       <c r="C615" t="s">
-        <v>2277</v>
+        <v>2275</v>
       </c>
       <c r="D615" t="s">
         <v>1706</v>
@@ -16229,7 +16593,7 @@
         <v>295</v>
       </c>
       <c r="C616" t="s">
-        <v>2278</v>
+        <v>2276</v>
       </c>
       <c r="D616" t="s">
         <v>1707</v>
@@ -16243,7 +16607,7 @@
         <v>242</v>
       </c>
       <c r="C617" t="s">
-        <v>2279</v>
+        <v>2277</v>
       </c>
       <c r="D617" t="s">
         <v>1708</v>
@@ -16257,7 +16621,7 @@
         <v>231</v>
       </c>
       <c r="C618" t="s">
-        <v>2280</v>
+        <v>2278</v>
       </c>
       <c r="D618" t="s">
         <v>1709</v>
@@ -16271,7 +16635,7 @@
         <v>245</v>
       </c>
       <c r="C619" t="s">
-        <v>2281</v>
+        <v>2279</v>
       </c>
       <c r="D619" t="s">
         <v>1710</v>
@@ -16285,7 +16649,7 @@
         <v>244</v>
       </c>
       <c r="C620" t="s">
-        <v>2282</v>
+        <v>2280</v>
       </c>
       <c r="D620" t="s">
         <v>1711</v>
@@ -16299,7 +16663,7 @@
         <v>243</v>
       </c>
       <c r="C621" t="s">
-        <v>2283</v>
+        <v>2281</v>
       </c>
       <c r="D621" t="s">
         <v>1712</v>
@@ -16313,7 +16677,7 @@
         <v>296</v>
       </c>
       <c r="C622" t="s">
-        <v>2284</v>
+        <v>2282</v>
       </c>
       <c r="D622" t="s">
         <v>1410</v>
@@ -16327,7 +16691,7 @@
         <v>248</v>
       </c>
       <c r="C623" t="s">
-        <v>2285</v>
+        <v>2283</v>
       </c>
       <c r="D623" t="s">
         <v>1713</v>
@@ -16341,7 +16705,7 @@
         <v>227</v>
       </c>
       <c r="C624" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="D624" t="s">
         <v>1714</v>
@@ -16349,506 +16713,1108 @@
     </row>
     <row r="625" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
+        <v>2285</v>
+      </c>
+      <c r="B625" t="s">
+        <v>2286</v>
+      </c>
+      <c r="C625" t="s">
         <v>2287</v>
       </c>
-      <c r="B625" t="s">
-        <v>2288</v>
-      </c>
-      <c r="C625" t="s">
-        <v>2289</v>
-      </c>
       <c r="D625" t="s">
-        <v>2290</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="626" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
-        <v>2291</v>
+        <v>2288</v>
       </c>
       <c r="B626" t="s">
         <v>417</v>
       </c>
       <c r="C626" t="s">
-        <v>2044</v>
+        <v>2042</v>
       </c>
       <c r="D626" t="s">
-        <v>2290</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="627" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
-        <v>2292</v>
+        <v>2289</v>
       </c>
       <c r="B627" t="s">
-        <v>2293</v>
+        <v>2290</v>
       </c>
       <c r="C627" t="s">
-        <v>2294</v>
+        <v>2291</v>
       </c>
       <c r="D627" t="s">
-        <v>2290</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="628" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
-        <v>2295</v>
+        <v>2292</v>
       </c>
       <c r="B628" t="s">
-        <v>2296</v>
+        <v>2293</v>
       </c>
       <c r="C628" t="s">
-        <v>2297</v>
+        <v>2294</v>
       </c>
       <c r="D628" t="s">
-        <v>2290</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="629" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
-        <v>2298</v>
+        <v>2295</v>
       </c>
       <c r="B629" t="s">
-        <v>2299</v>
+        <v>2296</v>
       </c>
       <c r="C629" t="s">
-        <v>2300</v>
+        <v>2297</v>
       </c>
       <c r="D629" t="s">
-        <v>2290</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="630" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
-        <v>2301</v>
+        <v>2298</v>
       </c>
       <c r="B630" t="s">
-        <v>2302</v>
+        <v>2299</v>
       </c>
       <c r="C630" t="s">
-        <v>2303</v>
+        <v>2300</v>
       </c>
       <c r="D630" t="s">
-        <v>2290</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="631" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
-        <v>2304</v>
+        <v>2301</v>
       </c>
       <c r="B631" t="s">
-        <v>2305</v>
+        <v>2302</v>
       </c>
       <c r="C631" t="s">
-        <v>2306</v>
+        <v>2303</v>
       </c>
       <c r="D631" t="s">
-        <v>2290</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="632" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
-        <v>2307</v>
+        <v>2304</v>
       </c>
       <c r="B632" t="s">
-        <v>2308</v>
+        <v>2305</v>
       </c>
       <c r="C632" t="s">
-        <v>2309</v>
+        <v>2306</v>
       </c>
       <c r="D632" t="s">
-        <v>2290</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="633" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
-        <v>2310</v>
+        <v>2307</v>
       </c>
       <c r="B633" t="s">
-        <v>2311</v>
+        <v>2308</v>
       </c>
       <c r="C633" t="s">
-        <v>2312</v>
+        <v>2309</v>
       </c>
       <c r="D633" t="s">
-        <v>2290</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="634" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
-        <v>2313</v>
+        <v>2310</v>
       </c>
       <c r="B634" t="s">
-        <v>2314</v>
+        <v>2311</v>
       </c>
       <c r="C634" t="s">
-        <v>2315</v>
+        <v>2312</v>
       </c>
       <c r="D634" t="s">
-        <v>2290</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="635" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
-        <v>2316</v>
+        <v>2313</v>
       </c>
       <c r="B635" t="s">
-        <v>2317</v>
+        <v>2314</v>
       </c>
       <c r="C635" t="s">
-        <v>2318</v>
+        <v>2315</v>
       </c>
       <c r="D635" t="s">
-        <v>2290</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="636" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
-        <v>2319</v>
+        <v>2316</v>
       </c>
       <c r="B636" t="s">
-        <v>2320</v>
+        <v>2317</v>
       </c>
       <c r="C636" t="s">
-        <v>2321</v>
+        <v>2318</v>
       </c>
       <c r="D636" t="s">
-        <v>2290</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="637" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
-        <v>2322</v>
+        <v>2319</v>
       </c>
       <c r="B637" t="s">
-        <v>2323</v>
+        <v>2320</v>
       </c>
       <c r="C637" t="s">
-        <v>2324</v>
+        <v>2321</v>
       </c>
       <c r="D637" t="s">
-        <v>2290</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="638" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
-        <v>2325</v>
+        <v>2322</v>
       </c>
       <c r="B638" t="s">
-        <v>2326</v>
+        <v>2323</v>
       </c>
       <c r="C638" t="s">
-        <v>2327</v>
+        <v>2324</v>
       </c>
       <c r="D638" t="s">
-        <v>2290</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="639" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
-        <v>2328</v>
+        <v>2325</v>
       </c>
       <c r="B639" t="s">
-        <v>2329</v>
+        <v>2326</v>
       </c>
       <c r="C639" t="s">
-        <v>2330</v>
+        <v>2327</v>
       </c>
       <c r="D639" t="s">
-        <v>2290</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="640" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
-        <v>2331</v>
+        <v>2328</v>
       </c>
       <c r="B640" t="s">
-        <v>2332</v>
+        <v>2329</v>
       </c>
       <c r="C640" t="s">
-        <v>2333</v>
+        <v>2330</v>
       </c>
       <c r="D640" t="s">
-        <v>2290</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="641" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
-        <v>2334</v>
+        <v>2331</v>
       </c>
       <c r="B641" t="s">
-        <v>2335</v>
+        <v>2332</v>
       </c>
       <c r="C641" t="s">
-        <v>2336</v>
+        <v>2333</v>
       </c>
       <c r="D641" t="s">
-        <v>2290</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="642" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
-        <v>2337</v>
+        <v>2334</v>
       </c>
       <c r="B642" t="s">
-        <v>2338</v>
+        <v>2335</v>
       </c>
       <c r="C642" t="s">
-        <v>2339</v>
+        <v>2336</v>
       </c>
       <c r="D642" t="s">
-        <v>2290</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="643" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
-        <v>2340</v>
+        <v>2337</v>
       </c>
       <c r="B643" t="s">
-        <v>2341</v>
+        <v>2338</v>
       </c>
       <c r="C643" t="s">
-        <v>2342</v>
+        <v>2339</v>
       </c>
       <c r="D643" t="s">
-        <v>2290</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="644" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
-        <v>2343</v>
+        <v>2340</v>
       </c>
       <c r="B644" t="s">
-        <v>2344</v>
+        <v>2341</v>
       </c>
       <c r="C644" t="s">
-        <v>2345</v>
+        <v>2342</v>
       </c>
       <c r="D644" t="s">
-        <v>2290</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="645" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
-        <v>2346</v>
+        <v>2343</v>
       </c>
       <c r="B645" t="s">
-        <v>2347</v>
+        <v>2344</v>
       </c>
       <c r="C645" t="s">
-        <v>2348</v>
+        <v>2345</v>
       </c>
       <c r="D645" t="s">
-        <v>2290</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="646" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
-        <v>2349</v>
+        <v>2346</v>
       </c>
       <c r="B646" t="s">
-        <v>2350</v>
+        <v>2347</v>
       </c>
       <c r="C646" t="s">
-        <v>2351</v>
+        <v>2348</v>
       </c>
       <c r="D646" t="s">
-        <v>2290</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="647" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
-        <v>2352</v>
+        <v>2349</v>
       </c>
       <c r="B647" t="s">
-        <v>2353</v>
+        <v>2350</v>
       </c>
       <c r="C647" t="s">
-        <v>2354</v>
+        <v>2351</v>
       </c>
       <c r="D647" t="s">
-        <v>2290</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="648" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
-        <v>2355</v>
+        <v>2352</v>
       </c>
       <c r="B648" t="s">
-        <v>2356</v>
+        <v>2353</v>
       </c>
       <c r="C648" t="s">
-        <v>2357</v>
+        <v>2354</v>
       </c>
       <c r="D648" t="s">
-        <v>2290</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="649" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
-        <v>2358</v>
+        <v>2355</v>
       </c>
       <c r="B649" t="s">
-        <v>2359</v>
+        <v>2356</v>
       </c>
       <c r="C649" t="s">
-        <v>2360</v>
+        <v>2357</v>
       </c>
       <c r="D649" t="s">
-        <v>2290</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="650" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
-        <v>2361</v>
+        <v>2358</v>
       </c>
       <c r="B650" t="s">
-        <v>2362</v>
+        <v>2359</v>
       </c>
       <c r="C650" t="s">
-        <v>2363</v>
+        <v>2360</v>
       </c>
       <c r="D650" t="s">
-        <v>2290</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="651" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
-        <v>2364</v>
+        <v>2361</v>
       </c>
       <c r="B651" t="s">
-        <v>2365</v>
+        <v>2362</v>
       </c>
       <c r="C651" t="s">
-        <v>2366</v>
+        <v>2363</v>
       </c>
       <c r="D651" t="s">
-        <v>2290</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="652" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
-        <v>2367</v>
+        <v>2364</v>
       </c>
       <c r="B652" t="s">
         <v>199</v>
       </c>
       <c r="C652" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
       <c r="D652" t="s">
-        <v>2290</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="653" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
-        <v>2368</v>
+        <v>2365</v>
       </c>
       <c r="B653" t="s">
-        <v>2369</v>
+        <v>2366</v>
       </c>
       <c r="C653" t="s">
-        <v>2370</v>
+        <v>2367</v>
       </c>
       <c r="D653" t="s">
-        <v>2290</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="654" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
-        <v>2371</v>
+        <v>2368</v>
       </c>
       <c r="B654" t="s">
-        <v>2372</v>
+        <v>2385</v>
       </c>
       <c r="C654" t="s">
-        <v>2373</v>
+        <v>2386</v>
       </c>
       <c r="D654" t="s">
-        <v>2290</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="655" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
-        <v>2374</v>
+        <v>2369</v>
       </c>
       <c r="B655" t="s">
-        <v>2375</v>
+        <v>2387</v>
       </c>
       <c r="C655" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
       <c r="D655" t="s">
-        <v>2290</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="656" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
-        <v>2377</v>
+        <v>2370</v>
       </c>
       <c r="B656" t="s">
-        <v>2378</v>
+        <v>2371</v>
       </c>
       <c r="C656" t="s">
-        <v>2379</v>
+        <v>2372</v>
       </c>
       <c r="D656" t="s">
-        <v>2290</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="657" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
-        <v>2380</v>
+        <v>2373</v>
       </c>
       <c r="B657" t="s">
-        <v>2381</v>
+        <v>2374</v>
       </c>
       <c r="C657" t="s">
-        <v>2382</v>
+        <v>2375</v>
       </c>
       <c r="D657" t="s">
-        <v>2290</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="658" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
-        <v>2384</v>
+        <v>2389</v>
       </c>
       <c r="B658" t="s">
-        <v>2385</v>
+        <v>2390</v>
       </c>
       <c r="C658" t="s">
-        <v>2386</v>
+        <v>2391</v>
       </c>
       <c r="D658" t="s">
-        <v>2290</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="659" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
-        <v>2387</v>
+        <v>2392</v>
       </c>
       <c r="B659" t="s">
-        <v>2388</v>
+        <v>2393</v>
       </c>
       <c r="C659" t="s">
-        <v>2389</v>
+        <v>2394</v>
       </c>
       <c r="D659" t="s">
-        <v>2290</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="660" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
-        <v>2368</v>
+        <v>2395</v>
       </c>
       <c r="B660" t="s">
-        <v>2369</v>
+        <v>2396</v>
       </c>
       <c r="C660" t="s">
-        <v>2383</v>
+        <v>2397</v>
       </c>
       <c r="D660" t="s">
-        <v>2290</v>
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="661" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A661" t="s">
+        <v>2398</v>
+      </c>
+      <c r="B661" t="s">
+        <v>2399</v>
+      </c>
+      <c r="C661" t="s">
+        <v>2400</v>
+      </c>
+      <c r="D661" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="662" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A662" t="s">
+        <v>2401</v>
+      </c>
+      <c r="B662" t="s">
+        <v>2402</v>
+      </c>
+      <c r="C662" t="s">
+        <v>2403</v>
+      </c>
+      <c r="D662" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="663" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A663" t="s">
+        <v>2404</v>
+      </c>
+      <c r="B663" t="s">
+        <v>2405</v>
+      </c>
+      <c r="C663" t="s">
+        <v>2406</v>
+      </c>
+      <c r="D663" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="664" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A664" t="s">
+        <v>2407</v>
+      </c>
+      <c r="B664" t="s">
+        <v>2408</v>
+      </c>
+      <c r="C664" t="s">
+        <v>2409</v>
+      </c>
+      <c r="D664" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="665" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A665" t="s">
+        <v>2410</v>
+      </c>
+      <c r="B665" t="s">
+        <v>2411</v>
+      </c>
+      <c r="C665" t="s">
+        <v>2412</v>
+      </c>
+      <c r="D665" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="666" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A666" t="s">
+        <v>2413</v>
+      </c>
+      <c r="B666" t="s">
+        <v>2414</v>
+      </c>
+      <c r="C666" t="s">
+        <v>2415</v>
+      </c>
+      <c r="D666" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="667" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A667" t="s">
+        <v>2416</v>
+      </c>
+      <c r="B667" t="s">
+        <v>2417</v>
+      </c>
+      <c r="C667" t="s">
+        <v>2418</v>
+      </c>
+      <c r="D667" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="668" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A668" t="s">
+        <v>2419</v>
+      </c>
+      <c r="B668" t="s">
+        <v>2420</v>
+      </c>
+      <c r="C668" t="s">
+        <v>2421</v>
+      </c>
+      <c r="D668" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="669" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A669" t="s">
+        <v>2422</v>
+      </c>
+      <c r="B669" t="s">
+        <v>2423</v>
+      </c>
+      <c r="C669" t="s">
+        <v>2424</v>
+      </c>
+      <c r="D669" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="670" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A670" t="s">
+        <v>2425</v>
+      </c>
+      <c r="B670" t="s">
+        <v>2426</v>
+      </c>
+      <c r="C670" t="s">
+        <v>2427</v>
+      </c>
+      <c r="D670" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="671" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A671" t="s">
+        <v>2428</v>
+      </c>
+      <c r="B671" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C671" t="s">
+        <v>2430</v>
+      </c>
+      <c r="D671" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="672" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A672" t="s">
+        <v>2431</v>
+      </c>
+      <c r="B672" t="s">
+        <v>252</v>
+      </c>
+      <c r="C672" t="s">
+        <v>1852</v>
+      </c>
+      <c r="D672" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="673" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A673" t="s">
+        <v>2432</v>
+      </c>
+      <c r="B673" t="s">
+        <v>2433</v>
+      </c>
+      <c r="C673" t="s">
+        <v>2434</v>
+      </c>
+      <c r="D673" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="674" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A674" t="s">
+        <v>2435</v>
+      </c>
+      <c r="B674" t="s">
+        <v>2436</v>
+      </c>
+      <c r="C674" t="s">
+        <v>2437</v>
+      </c>
+      <c r="D674" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="675" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A675" t="s">
+        <v>2438</v>
+      </c>
+      <c r="B675" t="s">
+        <v>2439</v>
+      </c>
+      <c r="C675" t="s">
+        <v>2440</v>
+      </c>
+      <c r="D675" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="676" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A676" t="s">
+        <v>2441</v>
+      </c>
+      <c r="B676" t="s">
+        <v>2442</v>
+      </c>
+      <c r="C676" t="s">
+        <v>2443</v>
+      </c>
+      <c r="D676" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="677" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A677" t="s">
+        <v>2444</v>
+      </c>
+      <c r="B677" t="s">
+        <v>2445</v>
+      </c>
+      <c r="C677" t="s">
+        <v>2446</v>
+      </c>
+      <c r="D677" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="678" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A678" t="s">
+        <v>2447</v>
+      </c>
+      <c r="B678" t="s">
+        <v>2448</v>
+      </c>
+      <c r="C678" t="s">
+        <v>2449</v>
+      </c>
+      <c r="D678" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="679" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A679" t="s">
+        <v>2450</v>
+      </c>
+      <c r="B679" t="s">
+        <v>2451</v>
+      </c>
+      <c r="C679" t="s">
+        <v>2452</v>
+      </c>
+      <c r="D679" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="680" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A680" t="s">
+        <v>2453</v>
+      </c>
+      <c r="B680" t="s">
+        <v>2454</v>
+      </c>
+      <c r="C680" t="s">
+        <v>2455</v>
+      </c>
+      <c r="D680" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="681" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A681" t="s">
+        <v>2456</v>
+      </c>
+      <c r="B681" t="s">
+        <v>2457</v>
+      </c>
+      <c r="C681" t="s">
+        <v>2458</v>
+      </c>
+      <c r="D681" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="682" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A682" t="s">
+        <v>2459</v>
+      </c>
+      <c r="B682" t="s">
+        <v>2460</v>
+      </c>
+      <c r="C682" t="s">
+        <v>2461</v>
+      </c>
+      <c r="D682" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="683" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A683" t="s">
+        <v>2462</v>
+      </c>
+      <c r="B683" t="s">
+        <v>2463</v>
+      </c>
+      <c r="C683" t="s">
+        <v>2464</v>
+      </c>
+      <c r="D683" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="684" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A684" t="s">
+        <v>2465</v>
+      </c>
+      <c r="B684" t="s">
+        <v>2466</v>
+      </c>
+      <c r="C684" t="s">
+        <v>2467</v>
+      </c>
+      <c r="D684" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="685" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A685" t="s">
+        <v>2468</v>
+      </c>
+      <c r="B685" t="s">
+        <v>2469</v>
+      </c>
+      <c r="C685" t="s">
+        <v>2470</v>
+      </c>
+      <c r="D685" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="686" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A686" t="s">
+        <v>2471</v>
+      </c>
+      <c r="B686" t="s">
+        <v>2472</v>
+      </c>
+      <c r="C686" t="s">
+        <v>2473</v>
+      </c>
+      <c r="D686" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="687" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A687" t="s">
+        <v>2474</v>
+      </c>
+      <c r="B687" t="s">
+        <v>2475</v>
+      </c>
+      <c r="C687" t="s">
+        <v>2476</v>
+      </c>
+      <c r="D687" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="688" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A688" t="s">
+        <v>2477</v>
+      </c>
+      <c r="B688" t="s">
+        <v>2478</v>
+      </c>
+      <c r="C688" t="s">
+        <v>2479</v>
+      </c>
+      <c r="D688" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="689" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A689" t="s">
+        <v>2480</v>
+      </c>
+      <c r="B689" t="s">
+        <v>2481</v>
+      </c>
+      <c r="C689" t="s">
+        <v>2482</v>
+      </c>
+      <c r="D689" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="690" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A690" t="s">
+        <v>2483</v>
+      </c>
+      <c r="B690" t="s">
+        <v>2484</v>
+      </c>
+      <c r="C690" t="s">
+        <v>2485</v>
+      </c>
+      <c r="D690" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="691" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A691" t="s">
+        <v>2486</v>
+      </c>
+      <c r="B691" t="s">
+        <v>2487</v>
+      </c>
+      <c r="C691" t="s">
+        <v>2488</v>
+      </c>
+      <c r="D691" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="692" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A692" t="s">
+        <v>2489</v>
+      </c>
+      <c r="B692" t="s">
+        <v>2490</v>
+      </c>
+      <c r="C692" t="s">
+        <v>2491</v>
+      </c>
+      <c r="D692" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="693" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A693" t="s">
+        <v>2492</v>
+      </c>
+      <c r="B693" t="s">
+        <v>2493</v>
+      </c>
+      <c r="C693" t="s">
+        <v>2494</v>
+      </c>
+      <c r="D693" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="694" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A694" t="s">
+        <v>2495</v>
+      </c>
+      <c r="B694" t="s">
+        <v>267</v>
+      </c>
+      <c r="C694" t="s">
+        <v>1827</v>
+      </c>
+      <c r="D694" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="695" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A695" t="s">
+        <v>2496</v>
+      </c>
+      <c r="B695" t="s">
+        <v>141</v>
+      </c>
+      <c r="C695" t="s">
+        <v>1883</v>
+      </c>
+      <c r="D695" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="696" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A696" t="s">
+        <v>2497</v>
+      </c>
+      <c r="B696" t="s">
+        <v>2498</v>
+      </c>
+      <c r="C696" t="s">
+        <v>2499</v>
+      </c>
+      <c r="D696" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="697" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A697" t="s">
+        <v>2500</v>
+      </c>
+      <c r="B697" t="s">
+        <v>2501</v>
+      </c>
+      <c r="C697" t="s">
+        <v>2502</v>
+      </c>
+      <c r="D697" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="698" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A698" t="s">
+        <v>2503</v>
+      </c>
+      <c r="B698" t="s">
+        <v>2504</v>
+      </c>
+      <c r="C698" t="s">
+        <v>2505</v>
+      </c>
+      <c r="D698" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="699" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A699" t="s">
+        <v>183</v>
+      </c>
+      <c r="B699" t="s">
+        <v>183</v>
+      </c>
+      <c r="C699" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D699" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="700" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A700" t="s">
+        <v>2507</v>
+      </c>
+      <c r="B700" t="s">
+        <v>2508</v>
+      </c>
+      <c r="C700" t="s">
+        <v>2509</v>
+      </c>
+      <c r="D700" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="701" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A701" t="s">
+        <v>2510</v>
+      </c>
+      <c r="B701" t="s">
+        <v>2511</v>
+      </c>
+      <c r="C701" t="s">
+        <v>2512</v>
+      </c>
+      <c r="D701" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="702" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A702" t="s">
+        <v>2513</v>
+      </c>
+      <c r="B702" t="s">
+        <v>2514</v>
+      </c>
+      <c r="C702" t="s">
+        <v>2515</v>
+      </c>
+      <c r="D702" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="703" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A703" t="s">
+        <v>2516</v>
+      </c>
+      <c r="B703" t="s">
+        <v>2501</v>
+      </c>
+      <c r="C703" t="s">
+        <v>2502</v>
+      </c>
+      <c r="D703" t="s">
+        <v>2506</v>
       </c>
     </row>
   </sheetData>
